--- a/medicine/Enfance/Liste_des_romans_de_la_Bibliothèque_verte/Liste_des_romans_de_la_Bibliothèque_verte.xlsx
+++ b/medicine/Enfance/Liste_des_romans_de_la_Bibliothèque_verte/Liste_des_romans_de_la_Bibliothèque_verte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Voici la liste (exhaustive jusqu'en 1958) des romans pour la jeunesse parus dans la collection Bibliothèque verte depuis sa création en 1923.
 La liste classe les romans par ordre chronologique de publication ; elle comprend les différentes éditions d'un même roman :
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,14 +528,16 @@
           <t>Remarques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Problème de numérotation
 La Bibliothèque verte compte quatre séries de numérotation distinctes généralement incompatibles entre elles : 
 numérotation des volumes avec jaquette (1956-1958)
 numérotation des volumes pelliculés sans jaquette (1961-1982)
 numérotation des volumes en format de poche souple (1988-1999)
-numérotation des volumes dits « hybrides »[1] (2000-présent).
+numérotation des volumes dits « hybrides » (2000-présent).
 Il y a d'abord plusieurs séquences historiques de numéros : en effet, parfois de nouveaux titres remplacent d'anciens.
 Des romans différents ont reçu le même numéro : ce sont des erreurs de fabrication.
 Un même roman a pu paraître avec des numéros différents : ce sont alors des rééditions, parfois différentes dans l'illustration et/ou le texte.
@@ -543,7 +557,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -561,13 +575,15 @@
           <t>1re série : 1923 à 1958 (avec jaquettes à partir de 1933-34)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les volumes de cette première série se décomposent en trois sous-séries : 
 1923-29 : reliure toilée verte à petites fleurs dorées.
 1929-33/34 : reliure toilée verte à bandes dorées.
 1934-1958 : idem avec passage du toilé au cartonné et ajout d'une jaquette en papier blanc illustrée en couleur. Le dos est numéroté sur les derniers volumes parus de 1956 à 1958.
-Selon Daniel Federspiel[réf. nécessaire], collectionneur passionné[2], 382 titres différents ont été publiés de 1923 à 1958 dans cette série.
+Selon Daniel Federspiel[réf. nécessaire], collectionneur passionné, 382 titres différents ont été publiés de 1923 à 1958 dans cette série.
 </t>
         </is>
       </c>
@@ -578,7 +594,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -596,16 +612,89 @@
           <t>2e série : 1958 à 1973 (dos vert et bandeau jaune)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>De 1958 à 1971, les livres de la Bibliothèque verte ne possèdent plus de jaquette mais sont désormais recouverts d'un pelliculage (film plastique thermocollé sur le cartonnage).
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De 1958 à 1971, les livres de la Bibliothèque verte ne possèdent plus de jaquette mais sont désormais recouverts d'un pelliculage (film plastique thermocollé sur le cartonnage).
 Cette deuxième série est caractérisée par la présence sur la couverture d'un bandeau jaune portant l'inscription "Bibliothèque verte". Le dos est vert.
 Sur le dos apparaît une numérotation, dans une case blanche située sous la case portant l'inscription "Hachette".
 À noter : les 44 premiers numéros de l'année 1958 sont presque tous des rééditions de la première série et possèderont tous, contrairement aux volumes ultérieurs, un dos blanc identique à la première série avec jaquette.
-Selon Pascal Vacher[réf. nécessaire], il y a eu 487 numéros dans cette série[2].
-Du numéro 1 à 299 (deuxième et troisième séries)
-Du numéro 300 à 486 (deuxième et troisième séries)
-1966
+Selon Pascal Vacher[réf. nécessaire], il y a eu 487 numéros dans cette série.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2e série : 1958 à 1973 (dos vert et bandeau jaune)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Du numéro 1 à 299 (deuxième et troisième séries)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2e série : 1958 à 1973 (dos vert et bandeau jaune)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Du numéro 300 à 486 (deuxième et troisième séries)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1966
 300 - Caroline Quine - Une enquête des sœurs Parker : Les Sœurs Parker trouvent une piste. Illustré par Philippe Daure, traduit par Suzanne Pairault.
 301 - Lieutenant X - Langelot : Langelot et les Saboteurs. Illustré par Maurice Paulin.
 302 - Caroline Quine - Une enquête des sœurs Parker : Les Sœurs Parker et les Ravisseurs. Illustré par Philippe Daure, traduit par Claude Voilier.
@@ -646,7 +735,7 @@
 337 - Odette Sorensen - Le Carré d'As : Deux as à la T.V.. Illustré par François Batet.
 338 - Lieutenant X - Langelot : Langelot pickpocket. Illustré par Maurice Paulin.
 339 - Georges Bayard - Michel mousquetaire. Illustré par Philippe Daure.
-340 - Jean Jules-Verne - Le Triomphe de Michel Strogoff[74]. Illustré par François Batet. 1re édition.
+340 - Jean Jules-Verne - Le Triomphe de Michel Strogoff. Illustré par François Batet. 1re édition.
 341 - Alfred Hitchcock - La momie qui chuchotait. Texte français de Tatiana Bellini. Illustration de Jacques Poirier
 342 - Robert Nathan - La Fiancée de la forêt. Traduit par Suzanne Pairault. Illustré par François Batet. 1re édition.
 343 - Toudouze, Georges-Gustave Georges-Gustave Toudouze - Cinq jeunes filles en Armorique. Illustré par Christiane Dufour. 1re édition.
@@ -664,8 +753,8 @@
 354 - René Guillot - La Nuit des contrebandiers. Illustré par Philippe Daure
 355 - Caroline Quine - Une enquête des sœurs Parker : La villa du sommeil. Illustré par Philippe Daure, texte français de Suzanne Pairault.
 356 -
-357 - Amiral Lepotier[75] - Sous-marin atomique, en avant ![76]. Illustré par Raoul Auger. 1re édition.
-358 - Marie Chamming's - J'ai choisi la tempête. Illustré par Micheline Duvergier.1re édition[31].
+357 - Amiral Lepotier - Sous-marin atomique, en avant !. Illustré par Raoul Auger. 1re édition.
+358 - Marie Chamming's - J'ai choisi la tempête. Illustré par Micheline Duvergier.1re édition.
 359 - Alfred Hitchcock - Le Chinois qui verdissait. Texte français de Tatiana Bellini. Illustré par Jacques Poirier.
 361 - Caroline Quine - Alice Roy : Alice et la Malle mystérieuse. Illustré par Albert Chazelle, texte français de Claude Voilier.
 362 - Antoine Reboul - La Patrouille sous la mer. Illustré par François Batet.
@@ -693,7 +782,7 @@
 384 -
 385 -
 386 - Lieutenant X - Langelot : Langelot et les Crocodiles. Illustré par Maurice Paulin. 1re édition
-387 - Hans-Otto Meissner et François Debergh - Touriste clandestin[77]. Illustrations de Raoul Auger, traduit par Inconnu. 1re édition.
+387 - Hans-Otto Meissner et François Debergh - Touriste clandestin. Illustrations de Raoul Auger, traduit par Inconnu. 1re édition.
 388 - Paul-Jacques Bonzon - Les Six Compagnons : Les Six Compagnons et les Agents secrets. Illustré par Albert Chazelle. 1re édition
 389 - Suzanne Pairault - Jeunes Filles en blanc : La revanche de Marianne. Illustré par Philippe Daure.
 390 - Yves Jamiaque - Un Extravagant violoniste. Illustré par Raoul Auger.
@@ -701,10 +790,10 @@
 392 - Mark Twain - Les Aventures de Tom Sawyer. Illustré par Daniel Billon.
 393 -
 394 - Caroline Quine - Une enquête des sœurs Parker : Le Secret de la chambre close. Illustré par Philippe Daure, texte français de Claude Voilier.
-395 - Jack Schaefer - L'homme des vallées perdues. Illustré par Jean Reschofsky, traduit par Jean Périer. Nlle édition[54],[23].
+395 - Jack Schaefer - L'homme des vallées perdues. Illustré par Jean Reschofsky, traduit par Jean Périer. Nlle édition,.
 396 -
 397 - Jack London - Contes des mers du sud. Texte français de Paul Gruyer et Louis Postif. Illustré par Maurice Paulin.
-398 - Prosper Mérimée - Colomba. Illustré par Philippe Daure. Nlle édition[54],[23].
+398 - Prosper Mérimée - Colomba. Illustré par Philippe Daure. Nlle édition,.
 399 -
 400 - Caroline Quine - Alice Roy : Alice et le Diadème. Illustré par Albert Chazelle, texte français de Anne Joba.
 401 - Walt Morey - Le Révolté de l'Alaska. Traduit par Jean Muray. Illustré par François Batet. 1re édition.
@@ -770,9 +859,43 @@
 462 - Lester Del Rey - Les Naufragés de la planète Mars. Illustré par Yves Le Gall (Yvon Le Gall), texte français de Jean Muray.
 463 - Jean-Michel Charlier - Tanguy et Laverdure : L'Avion qui tuait ses pilotes. Illustré par Jijé.
 465 - Maurice Leblanc - Arsène Lupin contre Herlock Sholmès. Texte abrégé. Illustré par Pierre Leroy.
-466 - Caroline Quine - Alice Roy : Alice au Canada. Illustré par Albert Chazelle, texte français de Hélène Commin.
-Sans numérotation après 466 (troisième série)
-1971
+466 - Caroline Quine - Alice Roy : Alice au Canada. Illustré par Albert Chazelle, texte français de Hélène Commin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2e série : 1958 à 1973 (dos vert et bandeau jaune)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sans numérotation après 466 (troisième série)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1971
 Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et la Princesse noire. Illustré par Maurice Paulin. 1re édition.
 Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et les Espions du ciel. Illustré par Maurice Paulin. 1re édition.
 Mary Carey - Walt Disney présente : L'Étudiant et le Chimpanzé. Illustré par François Batet, texte français de Jean Muray. 1re édition.
@@ -789,38 +912,151 @@
 Henri Dumoulin - Le Thonier du miracle. Illustré par Mixi-Bérel. 1re édition.
 René Guillot - Le Chef au masque d'or. Illustré par François Batet. 1re édition.
 René Guillot - Le Chevalier sans visage. Illustré par Philippe Daure. 1re édition.
-Henri Jourdan - Otage d'Hitler. Illustré par Claude Lacroix. 1re édition[31].
+Henri Jourdan - Otage d'Hitler. Illustré par Claude Lacroix. 1re édition.
 Lucie Rauzier-Fontayne - L'Invitée inattendue. Illustré par Charles Popineau. 1re édition.
 Odette Sorensen - Des passants dans la nuit. Illustré par Charles Popineau. 1re édition.
-Verne, Jules Jules Verne - La Jangada. Illustré par Léon Benett. 1re édition.
-Réédition
-1965
-Paul Féval fils - La Jeunesse du Bossu. Illustrations de Jean Reschofsky. Réédition remaniée.
+Verne, Jules Jules Verne - La Jangada. Illustré par Léon Benett. 1re édition.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2e série : 1958 à 1973 (dos vert et bandeau jaune)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Réédition</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Paul Féval fils - La Jeunesse du Bossu. Illustrations de Jean Reschofsky. Réédition remaniée.
 Paul Féval fils - Le Fils de Lagardère. Illustré par Jean Reschofsky. Réédition remaniée.
-Rudyard Kipling - Capitaines courageux. Traduit par Louis Fabulet, Charles Fountaine-Walker. Illustré par R. Dendeville. Réédition remaniée[23].
+Rudyard Kipling - Capitaines courageux. Traduit par Louis Fabulet, Charles Fountaine-Walker. Illustré par R. Dendeville. Réédition remaniée.
 Verne, Jules Jules Verne - Un capitaine de quinze ans. Illustré par François Batet.
-Verne, Jules Jules Verne - L'Île mystérieuse. Illustré par Jean Reschofsky.
-1966
-Walter Farley - série L'Étalon noir : Le Retour de l'étalon noir. Illustré par J.-P. Ariel, traduit par Frédéric Certonciny.
+Verne, Jules Jules Verne - L'Île mystérieuse. Illustré par Jean Reschofsky.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2e série : 1958 à 1973 (dos vert et bandeau jaune)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Réédition</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1966</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Walter Farley - série L'Étalon noir : Le Retour de l'étalon noir. Illustré par J.-P. Ariel, traduit par Frédéric Certonciny.
 Lieutenant X - série Langelot : Langelot et les Espions. Illustré par Maurice Paulin.
 Lieutenant X - série Langelot : Langelot et le Gratte-Ciel. Illustré par Maurice Paulin.
 Lieutenant X - série Langelot : Langelot et les Saboteurs. Illustré par Maurice Paulin.
-Malot, Hector Hector Malot - Sans famille[14]. Illustré par Sylvain Fraroz.
+Malot, Hector Hector Malot - Sans famille. Illustré par Sylvain Fraroz.
 Noël-Noël - Le Père tranquille. Illustré par Jacques Pecnard.
 Odette Sorensen - série Le Carré d'As numéro 2 : L'Affaire du coffre-fort. Illustré par François Batet.
 Odette Sorensen - série Le Carré d'As numéro 3 : Les Disparus de l'autocar. Illustré par François Batet.
-Claude Veillot - L'homme à la carabine : L'Homme à la carabine. Illustré par François Batet[78].
+Claude Veillot - L'homme à la carabine : L'Homme à la carabine. Illustré par François Batet.
 Verne, Jules Jules Verne - L'École des Robinsons. Illustré par François Batet.
-Verne, Jules Jules Verne - Michel Strogoff. Illustré par René Georges-Gautier. Réédition remaniée[23]
+Verne, Jules Jules Verne - Michel Strogoff. Illustré par René Georges-Gautier. Réédition remaniée
 Verne, Jules Jules Verne - Le Serpent de mer. Illustré par François Batet
-Verne, Jules Jules Verne - Vingt mille lieues sous les mers. Illustré par François Batet[79]
-1967
-Alcott, Louisa May Louisa May Alcott - Les Quatre Filles du docteur March. Illustré par André Pécoud.
+Verne, Jules Jules Verne - Vingt mille lieues sous les mers. Illustré par François Batet</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2e série : 1958 à 1973 (dos vert et bandeau jaune)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Réédition</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1967</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Alcott, Louisa May Louisa May Alcott - Les Quatre Filles du docteur March. Illustré par André Pécoud.
 Georges Bayard - série Michel Thérais : Michel mousquetaire. Illustré par Philippe Daure.
 Bombard, Alain Alain Bombard - Naufragé volontaire. Illustré par Jean Reschofsky.
 Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et l'Avion clandestin. Illustré par Albert Chazelle.
 Fenimore Cooper - Le Dernier des Mohicans. Illustré par François Batet
-Daudet, Alphonse Alphonse Daudet : Histoire d'un enfant. Illustré par Pierre Rousseau. Réédition remaniée[23]
+Daudet, Alphonse Alphonse Daudet : Histoire d'un enfant. Illustré par Pierre Rousseau. Réédition remaniée
 Eilís Dillon - Les Garçons de l'île aux renards. Illustré par François Batet, traduit par Jean Muray.
 Walter Farley - série L'Étalon noir : Le Fils de l'étalon noir. Illustré par Raoul Auger, texte français de Jean Muray.
 Féval, Paul Paul Féval - Le Bossu. Illustré par Philippe Ledoux. Édition abrégée pour la jeunesse (2 volumes en un)
@@ -836,14 +1072,52 @@
 Odette Sorensen - série Le Carré d'As : Deux as à la T.V.. Illustré par François Batet.
 Stevenson, Robert Louis Robert Louis Stevenson - L'Île au trésor. Illustré par André Galland, traduit sous la direction de Paul Lorain.
 Claude Stokis - Réseau clandestin. Illustré par Maurice Paulin.
-Pierre Véry - Signé Alouette. Illustré par Aslan.
-1968
-Alcott, Louisa May Louisa May Alcott - Les Quatre Filles du docteur March. Illustré par Albert Chazelle, traduit par P.-J. Stahl. Réédition remaniée[23].
+Pierre Véry - Signé Alouette. Illustré par Aslan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2e série : 1958 à 1973 (dos vert et bandeau jaune)</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Réédition</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1968</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Alcott, Louisa May Louisa May Alcott - Les Quatre Filles du docteur March. Illustré par Albert Chazelle, traduit par P.-J. Stahl. Réédition remaniée.
 Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et l'Émetteur pirate. Illustré par Albert Chazelle.
 Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons à Scotland Yard. Illustré par Albert Chazelle.
 Anthony Buckeridge - série Bennett : Un ban pour Bennett !. Illustré par Jean Reschofsky, texte français de Vladimir Volkoff.
 Curwood, James Oliver James Oliver Curwood - Le Grizzly. Illustré par Henri Dimpre, le nom du traducteur n'est pas cité.
-Alexandre Dumas - Les Trois Mousquetaires. Illustré par Daniel Billon. Réédition remaniée[23],[14].
+Alexandre Dumas - Les Trois Mousquetaires. Illustré par Daniel Billon. Réédition remaniée,.
 Cordelia Drexel-Biddle et Kyle Crichton - Le Plus Heureux des milliardaires. Illustré par Jacques Poirier, traduit par Jean Muray.
 Walter Farley - série L'Étalon noir : Le Ranch de l'étalon noir. Illustré par Raoul Auger, texte français de Jean Muray.
 Grégoire Fédocéiev - Pachka du ravin de l'ours. Traduit par Magdelaine Strowski. Illustré par Jacques Poirier. 1re édition.
@@ -855,9 +1129,47 @@
 Suzanne Pairault - série Jeunes Filles en blanc : Catherine infirmière. Illustré par Philippe Daure.
 Odette Sorensen - série Le Carré d'As numéro 6 : Le Sac aux millions. Illustré par François Batet.
 Marc Soriano - Le Colonel introuvable. Illustré par J.-P. Ariel
-Toudouze, Georges-Gustave Georges-Gustave Toudouze - Cinq jeunes filles en Armorique. Illustré par Henri Faivre. Réédition remaniée[23].
-1969
-Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et les Agents secrets. Illustré par Albert Chazelle.
+Toudouze, Georges-Gustave Georges-Gustave Toudouze - Cinq jeunes filles en Armorique. Illustré par Henri Faivre. Réédition remaniée.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2e série : 1958 à 1973 (dos vert et bandeau jaune)</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Réédition</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1969</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et les Agents secrets. Illustré par Albert Chazelle.
 Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et le Secret de la calanque. Illustré par Albert Chazelle
 Anthony Buckeridge - série Bennett : Bennett prend le train. Illustré par Jean Reschofsky, texte français de Olivier Séchan.
 François Celier - Les Aventures d'Eric Matras : Les Chevaliers de l'océan. Illustré par Maurice Paulin.
@@ -871,30 +1183,106 @@
 Lieutenant X - série Langelot : Langelot chez les Pa-pous. Illustré par Maurice Paulin.
 Walter Farley - L'étalon noir : Le fantôme de l'étalon noir. Illustré par François Batet, texte français de Jean Muray.
 London, Jack Jack London - Contes des mers du sud. Traduit par Paul Gruyer et Louis Postif. Illustré par Maurice Paulin. Réédition remaniée.
-Malot, Hector Hector Malot - La Petite Sœur. Illustré par Josette Stephan. Réédition remaniée[23].
+Malot, Hector Hector Malot - La Petite Sœur. Illustré par Josette Stephan. Réédition remaniée.
 Caroline Quine - série Une enquête des sœurs Parker : Un portrait dans le sable. Illustré par Philippe Daure, traduit par Suzanne Pairault.
-Sand, George George Sand - La Petite Fadette. Illustré par Albert Chazelle. Réédition remaniée[23].
+Sand, George George Sand - La Petite Fadette. Illustré par Albert Chazelle. Réédition remaniée.
 Pat Smythe - série Ji-Ja-Jo numéro 4 : Le Grand Prix du Poney-Club. Illustré par François Batet, traduit par Suzanne Pairault.
-Toudouze, Georges-Gustave Georges-Gustave Toudouze - Cinq jeunes filles et le viking. Illustré par Christiane Dufour. Réédition remaniée[23].
-Jules Verne - Maître du monde. Illustré par Raoul Auger. Réédition remaniée[23].
-1970
-Georges Bayard - série Michel Thérais : Michel et la Soucoupe flottante. Illustré par Philippe Daure.
+Toudouze, Georges-Gustave Georges-Gustave Toudouze - Cinq jeunes filles et le viking. Illustré par Christiane Dufour. Réédition remaniée.
+Jules Verne - Maître du monde. Illustré par Raoul Auger. Réédition remaniée.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2e série : 1958 à 1973 (dos vert et bandeau jaune)</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Réédition</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Georges Bayard - série Michel Thérais : Michel et la Soucoupe flottante. Illustré par Philippe Daure.
 Mel Cebulash - Walt Disney présente : Un amour de Coccinelle. Illustré par Daniel Billon. Texte français de Jean Muray.
 François Celier - Les Aventures d'Eric Matras : La Vallée fantastique. Illustré par Maurice Paulin.
-Dumas, Alexandre Alexandre Dumas - Vingt ans après. Illustré par Daniel Billon. Réédition remaniée[23].
-Paul Féval - Le Bossu. Illustré par Philippe Ledoux. Réédition remaniée[23],[14].
+Dumas, Alexandre Alexandre Dumas - Vingt ans après. Illustré par Daniel Billon. Réédition remaniée.
+Paul Féval - Le Bossu. Illustré par Philippe Ledoux. Réédition remaniée,.
 Paul Féval fils - La Jeunesse du Bossu. Illustrations de Jean Reschofsky. Réédition remaniée.
 Eric Hatch (en) - Le Cheval aux sabots d'or. Illustré par François Batet, texte français de Jean Muray.
 Lieutenant X - série Langelot : Langelot suspect. Illustré par Maurice Paulin.
 Loti, Pierre Pierre Loti - Pêcheur d'Islande. Illustré par Paul Durand.
 Caroline Quine - série Alice : Alice et le Clavecin. Illustré par Albert Chazelle, traduit par Anne Joba.
 Caroline Quine - série Une enquête des sœurs Parker : L’Inconnu du carrefour. Illustré par Philippe Daure, traduit par Suzanne Pairault.
-Georges G. Toudouze - série Cinq jeunes filles : Cinq jeunes filles chez les pirates. Illustré par Henri Faivre.
-1971
-Auteurs en herbe, Les Jeunes écrivent pour les jeunes : ... Qui t'invite et qui t'aime. Illustré par Jacques Pecnard.
-Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et le Château maudit. Illustré par Maurice Paulin (couverture) et Albert Chazelle. Réédition remaniée[23]
+Georges G. Toudouze - série Cinq jeunes filles : Cinq jeunes filles chez les pirates. Illustré par Henri Faivre.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2e série : 1958 à 1973 (dos vert et bandeau jaune)</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Réédition</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1971</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Auteurs en herbe, Les Jeunes écrivent pour les jeunes : ... Qui t'invite et qui t'aime. Illustré par Jacques Pecnard.
+Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et le Château maudit. Illustré par Maurice Paulin (couverture) et Albert Chazelle. Réédition remaniée
 Fenimore Cooper - Le Dernier des Mohicans. Illustré par François Batet.
-Daudet, Alphonse Alphonse Daudet : Contes choisis. Illustré par Michèle Delagoutte-Forest. Réédition remaniée[23].
+Daudet, Alphonse Alphonse Daudet : Contes choisis. Illustré par Michèle Delagoutte-Forest. Réédition remaniée.
 Paul Capon - L'Île oubliée. Illustré par Françoise Boudignon. Texte français de Jean Muray.
 Dickens, Charles Charles Dickens - David Copperfield. Illustré par Jacques Pecnard, traduit sous la direction de Paul Lorain.
 Philippe Ébly - série Les Conquérants de l'impossible : Destination Uruapan. Illustré par Yvon Le Gall.
@@ -902,33 +1290,71 @@
 Alfred Hitchcock - série Les Trois Jeunes Détectives : Treize bustes pour Auguste. Illustré par Jacques Poirier, texte français de Claude Voilier.
 Suzanne Pairault - série Jeunes Filles en blanc : Infirmière à bord. Illustré par Philippe Daure.
 Caroline Quine - série Alice : Alice et la Diligence. Illustré par Albert Chazelle, traduit par Claude Voilier.
-Caroline Quine - série Alice : Alice et le Talisman d'ivoire. Traduit par Hélène Commin. Illustré par Albert Chazelle. Réédition remaniée[23]
+Caroline Quine - série Alice : Alice et le Talisman d'ivoire. Traduit par Hélène Commin. Illustré par Albert Chazelle. Réédition remaniée
 Caroline Quine - série Une enquête des sœurs Parker : Sur les traces de l’homme masqué. Illustré par Philippe Daure, traduit par Suzanne Pairault.
 Caroline Quine - série Une enquête des sœurs Parker : La Sorcière du lac perdu. Illustré par Philippe Daure, traduit par Suzanne Pairault.
-Stevenson, Robert Louis Robert Louis Stevenson - L'Île au trésor. Illustré par Jean Reschofsky, traduit par Paul Lorain. Réédition remaniée[23].
-1972
-Amédée Achard - série Monsieur de la Guerche : Les Chevauchées de Monsieur de la Guerche. Illustré par Jean Reschofsky.
+Stevenson, Robert Louis Robert Louis Stevenson - L'Île au trésor. Illustré par Jean Reschofsky, traduit par Paul Lorain. Réédition remaniée.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2e série : 1958 à 1973 (dos vert et bandeau jaune)</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Réédition</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1972</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Amédée Achard - série Monsieur de la Guerche : Les Chevauchées de Monsieur de la Guerche. Illustré par Jean Reschofsky.
 Auteurs en herbe, Les jeunes écrivent pour les jeunes : Aux rendez-vous de l'amitié. Illustré par Annie-Claude Martin.
-Bayard, Georges Georges Bayard - série Michel : Les Étranges Vacances de Michel. Illustré par Philippe Daure. Réédition remaniée[23].
-Bayard, Georges Georges Bayard - L’École des détectives. Illustré par Alain d'Orange. Réédition remaniée[23].
-Bonzon, Paul-Jacques Paul-Jacques Bonzon - L’Éventail de Séville. Illustré par François Batet. Réédition remaniée[23].
-Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et le Piano à queue. Illustré par Maurice Paulin (couverture) et Albert Chazelle. Réédition remaniée[23].
-Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et la Pile atomique. Illustré par Maurice Paulin (couverture) et Albert Chazelle. Réédition remaniée[23].
-Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et la Perruque rouge. Illustré par Inconnu. Réédition remaniée[23].
-Curwood, James Oliver James Oliver Curwood - Kazan. Illustré par Josette Mimran. Traduit par Louis Postif, Paul Gruyer. Nlle édition[54],[23].
-Daudet, Alphonse Alphonse Daudet : Lettres de mon moulin. Illustré par (Inconnu). Réédition remaniée[23].
-Dickens, Charles Charles Dickens - Olivier Twist[33]. Illustré par Georges Beuville. Traduit par Jean Muray. Réédition remaniée[23],[80],[31].
-André Demaison - Des bêtes qu'on dit sauvages. Illustré par ???. Réédition remaniée[23].
+Bayard, Georges Georges Bayard - série Michel : Les Étranges Vacances de Michel. Illustré par Philippe Daure. Réédition remaniée.
+Bayard, Georges Georges Bayard - L’École des détectives. Illustré par Alain d'Orange. Réédition remaniée.
+Bonzon, Paul-Jacques Paul-Jacques Bonzon - L’Éventail de Séville. Illustré par François Batet. Réédition remaniée.
+Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et le Piano à queue. Illustré par Maurice Paulin (couverture) et Albert Chazelle. Réédition remaniée.
+Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et la Pile atomique. Illustré par Maurice Paulin (couverture) et Albert Chazelle. Réédition remaniée.
+Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et la Perruque rouge. Illustré par Inconnu. Réédition remaniée.
+Curwood, James Oliver James Oliver Curwood - Kazan. Illustré par Josette Mimran. Traduit par Louis Postif, Paul Gruyer. Nlle édition,.
+Daudet, Alphonse Alphonse Daudet : Lettres de mon moulin. Illustré par (Inconnu). Réédition remaniée.
+Dickens, Charles Charles Dickens - Olivier Twist. Illustré par Georges Beuville. Traduit par Jean Muray. Réédition remaniée.
+André Demaison - Des bêtes qu'on dit sauvages. Illustré par ???. Réédition remaniée.
 Alexandre Dumas - La Tulipe noire. Illustré par Pierre Rousseau. Réédition remaniée.
-Alexandre Dumas - Le Vicomte de Bragelonne[14]. Illustré par François Batet. Nlle édition[54],[23].
+Alexandre Dumas - Le Vicomte de Bragelonne. Illustré par François Batet. Nlle édition,.
 Philippe Ébly - série Les Conquérants de l'impossible : Celui qui revenait de loin. Illustré par Yvon Le Gall.
 H. Rider Haggard - Les Mines du roi Salomon. Illustré par Yvon Le Gall. Traduit par René Lécuyer. Réédition remaniée.
 Hémon, Louis Louis Hémon - Maria Chapdelaine. Illustré par Albert Chazelle. Réédition remaniée.
-Victor Hugo - Quatrevingt-treize. Illustré par Jean Reschofsky. Réédition remaniée[23].
-Kipling, Rudyard Rudyard Kipling - Capitaines courageux. Traduit par Louis Fabulet, Charles Fountaine-Walker. Illustré par Daniel Billon. Réédition remaniée[23].
+Victor Hugo - Quatrevingt-treize. Illustré par Jean Reschofsky. Réédition remaniée.
+Kipling, Rudyard Rudyard Kipling - Capitaines courageux. Traduit par Louis Fabulet, Charles Fountaine-Walker. Illustré par Daniel Billon. Réédition remaniée.
 Jack Lancer - série Chris Cool : Chris Cool chez les Jivaros. Illustré par Jacques Poirier, traduit par F-M. Watkins.
 Lieutenant X - série Langelot : Langelot fait le malin. Illustré par Maurice Paulin.
-London, Jack Jack London - Croc-Blanc. Traduit en français par Daniel Alibert-Kouraguine. Illustré par Yves Beaujard. Réédition remaniée[23],[80].
+London, Jack Jack London - Croc-Blanc. Traduit en français par Daniel Alibert-Kouraguine. Illustré par Yves Beaujard. Réédition remaniée,.
 London, Jack Jack London - Fille des neiges. Texte français de Louis Postif. Illustré par Françoise Boudignon. Réédition remaniée.
 London, Jack Jack London - Michaël, chien de cirque. Illustré par Pierre Leroy. Traduit par Louis Postif et Paul Gruyer. Réédition remaniée.
 Caroline Quine - série Alice : Alice chez les Incas. Illustré par Albert Chazelle, traduit par Anne Joba.
@@ -936,41 +1362,151 @@
 Caroline Quine - série Une enquête des sœurs Parker : Les Patineurs de la nuit. Illustré par Philippe Daure, traduit par Suzanne Pairault.
 Caroline Quine - série Une enquête des sœurs Parker : Le Secret des boucaniers. Illustré par Philippe Daure, traduit par Claude Voilier.
 Caroline Quine - série Une enquête des sœurs Parker : L’Affaire du pavillon bleu. Illustré par Philippe Daure, traduit par Suzanne Pairault.
-P. J. Stahl et Marko Vovtchok - Maroussia. Traduit par Pierre-Jules Hetzel, illustré par François Batet. Réédition remaniée[23].
-Toudouze, Georges-Gustave Georges-Gustave Toudouze - série Cinq jeunes filles - Cinq jeunes filles en Armorique. Henri Faivre. Réédition remaniée[23].
-Twain, Mark Mark Twain - Les Aventures de Huck Finn. Traduit par Yolande Surleau et René Surleau. Illustré par Daniel Billon. Réédition remaniée[23]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+P. J. Stahl et Marko Vovtchok - Maroussia. Traduit par Pierre-Jules Hetzel, illustré par François Batet. Réédition remaniée.
+Toudouze, Georges-Gustave Georges-Gustave Toudouze - série Cinq jeunes filles - Cinq jeunes filles en Armorique. Henri Faivre. Réédition remaniée.
+Twain, Mark Mark Twain - Les Aventures de Huck Finn. Traduit par Yolande Surleau et René Surleau. Illustré par Daniel Billon. Réédition remaniée.
+Jules Verne - De la Terre à la Lune. Illustré par Jean Reschofsky. Réédition remaniée.
+Jules Verne - Les Frères Kip. Illustré par Jacques Poirier. Réédition remaniée.
+Jules Verne - Mathias Sandorf. Illustré par Léon Benett. Réédition remaniée.
+Jules Verne - Le Pilote du Danube. Illustré par Françoise Boudignon. Réédition remaniée.
+Jules Verne - Un drame en Livonie. Illustré par Françoise Boudignon. Nlle édition.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2e série : 1958 à 1973 (dos vert et bandeau jaune)</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Réédition</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1973</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Amédée Achard - Les coups d'épée de M. De  la Guerche. Illustré par Jean Reschofsky. Nlle édition,.
+Acremant, Germaine Germaine Acremant - Ces dames aux chapeaux verts. Illustré par Jacques Demachy. Réédition remaniée.
+Alcott, Louisa May Louisa May Alcott - Rose et ses sept cousins. Illustré par Daniel Billon. Réédition remaniée.
+Auteurs en herbe, Les jeunes écrivent pour les jeunes : Toujours de l'audace. Illustré par Françoise Boudignon
+Georges Bayard - série Michel Thérais : Michel mène l'enquête. Illustré par Philippe Daure. Réédition remaniée.
+Georges Bayard - série Michel Thérais : Michel fait du vol à voile. Illustré par Philippe Daure.
+Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons au gouffre Marzal. Illustré par Maurice Paulin (couverture) et Albert Chazelle. Réédition remaniée.
+Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et le Secret de la calanque. Illustré par Albert Chazelle.
+Anthony Buckeridge - série Bennett : Bennett champion. Illustré par Daniel Billon, texte français de Olivier Séchan.
+James Oliver Curwood - Bari, chien-loup. Illustré par Tibor Csernus. Traduit par Léon Bocquet. Réédition remaniée.
+Curwood, James Oliver James Oliver Curwood - La Piste dangereuse. Illustré par Pierre Leroy, traduit par Victor Forbin.
+André Dhôtel - Le Pays où l'on n'arrive jamais. Illustré par Jean Reschofsky.
+Philippe Ébly - série Les Conquérants de l'impossible : L'Évadé de l'an II. Illustré par Yvon Le Gall.
+Féval, Paul Paul Féval - Le Loup blanc. Illustré par Jacques Poirier. Réédition remaniée.
+France, Anatole Anatole France - Le Livre de mon ami. Illustré par François Batet. Réédition remaniée.
+Alfred Hitchcock - Le Trombone du diable (série Les Trois Jeunes détectives)
+Hugo, Victor Victor Hugo - Les Travailleurs de la mer. Illustré par Jean Reschofsky. Réédition remaniée. Nlle édition,.
+Jack Lancer - série Chris Cool : Chris Cool contre le dragon. Illustré par Jacques Poirier, traduit par F-M. Watkins.
+Lieutenant X - série Langelot : Langelot et les Espions. Illustré par Maurice Paulin.
+Pierre Maël - Fille de rois. Illustré par Maurice Grimaud. Réédition remaniée.
+Caroline Quine - série Alice : Alice et les Trois Clefs. Illustré par Albert Chazelle, traduit par Hélène Commin. Réédition remaniée.
+Caroline Quine - série Une enquête des sœurs Parker : L’Énigme de la clé rouillée. Illustré par Philippe Daure, traduit par Claude Voilier.
+Caroline Quine - série Une enquête des sœurs Parker : La Guitare ensorcelée. Illustré par Philippe Daure, traduit par Claude Voilier.
+Smith, Betty Betty Smith - Le Lys de Brooklyn. Traduit par Maurice Beerblock. Illustré par A. Beynel. Réédition remaniée.
+P. J. Stahl et Mary Mapes Dodge - Les Patins d'argent. Traduit par Pierre-Jules Hetzel. Illustré par François Batet. Réédition remaniée.
+Verne, Jules Jules Verne - Robur le Conquérant. Illustré d'après Léon Benett. Réédition remaniée.
+Verne, Jules Jules Verne - Le Superbe Orénoque. Illustré par George Roux. Réédition remaniée.
+Verne, Jules Jules Verne - Le Tour du monde en quatre-vingts jours. Illustré par Carl de Parcevaux et Albert Brenet. Réédition remaniée.
+Winterfeld, Henry Henry Winterfeld - L'Affaire Caïus. Traduit par Olivier Séchan. Illustré par Paul Durand. Nlle édition.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>3e série : 1974 à 1982 (logo Hachette carré)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette série est caractérisée par la présence sur la couverture d'une case portant l'inscription bibliothèque verte", case dont l'emplacement n'est pas fixe mais varie d'un volume à l'autre. La numérotation disparaît.
-1974
-Cécile Aubry - Belle et Sébastien : Le Document secret. Illustrations de Jean Reschofsky.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>3e série : 1974 à 1982 (logo Hachette carré)</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Cécile Aubry - Belle et Sébastien : Le Document secret. Illustrations de Jean Reschofsky.
 Auteurs en herbe, Les jeunes écrivent pour les jeunes : Le Carrefour des mains tendues. Illustré par Françoise Boudignon
 Anthony Buckeridge - série Bennett : Bennet et son piano. Illustré par Jean Reschofsky.
 Georges Bayard - série Michel Thérais : Michel et la Voiture fantôme. Illustré par Philippe Daure.
@@ -985,14 +1521,14 @@
 Claude Cénac - Le Printemps viendra deux fois. Illustré par Raoul Auger.
 Collectif - Auteurs en herbe : Le Carrefour des mains tendues. Illustré par Françoise Boudignon.
 Daudet, Alphonse Alphonse Daudet : Contes du lundi. Illustré par Jean Reschofsky.
-Daudet, Alphonse Alphonse Daudet : Contes choisis. Illustré par Michèle Delagoutte-Forest. Réédition remaniée[23].
+Daudet, Alphonse Alphonse Daudet : Contes choisis. Illustré par Michèle Delagoutte-Forest. Réédition remaniée.
 Dickens, Charles Charles Dickens - Les Aventures de M. Pickwick. Traduit par Vladimir Volkoff. Illustré par Jean Reschofsky. Réédition remaniée.
 Joseph Dinant - Taurus le révolté. Illustré par Françoise Boudignon. 1re édition.
-Amiral Ellsberg - Le Trésor de la Santa-Cruz. Illustré par François Batet, traduit par Pierre Bonvallet. Nlle édition[54],[23].
+Amiral Ellsberg - Le Trésor de la Santa-Cruz. Illustré par François Batet, traduit par Pierre Bonvallet. Nlle édition,.
 Sid Fleischman - L'Homme qui brillait la nuit. Illustré par Moles, traduit par Roland Helville. 1re édition.
 Léon Garfield - L'Homme qui sortait du brouillard. Traduit par Jean Muray, illustré par Yvon Le Gall. 1re édition.
 Alfred Hitchcock - série Les Trois Jeunes Détectives : Une araignée appelée à régner. Illustré par Jacques Poirier, texte français de Claude Voilier.
-Garry Hogg - Les Naufragés du pôle Nord. Traduit par Geneviève Hurel. Illustrations de Madeleine Prévost (1re édition Hachette 1977[83]. ).
+Garry Hogg - Les Naufragés du pôle Nord. Traduit par Geneviève Hurel. Illustrations de Madeleine Prévost (1re édition Hachette 1977. ).
 Lieutenant X - série Langelot : Langelot chez les Pa-pous. Illustré par Maurice Paulin.
 Lieutenant X - série Langelot : Langelot contre Monsieur T. Illustré par Maurice Paulin.
 Lieutenant X - série Langelot : Langelot et le Gratte-Ciel. Illustré par Maurice Paulin.
@@ -1004,8 +1540,8 @@
 Lieutenant X - série Langelot : Langelot mène la vie de château. Illustré par Maurice Paulin.
 London, Jack Jack London - L'Appel sauvage. Traduit par Jean Muray. Illustré par Jacques Pecnard. 1re édition.
 London, Jack Jack London - Patrouille de pêche. Traduit par Jean Muray. Illustré par Yvon Le Gall. 1re édition.
-Caroline Quine - série Alice : Alice écuyère. Traduit par Hélène Commin. Illustré par Albert Chazelle. Réédition remaniée[23].
-Caroline Quine - série Alice : Alice au camp des biches. Traduit par Hélène Commin. Illustré par Albert Chazelle. Réédition remaniée[84].
+Caroline Quine - série Alice : Alice écuyère. Traduit par Hélène Commin. Illustré par Albert Chazelle. Réédition remaniée.
+Caroline Quine - série Alice : Alice au camp des biches. Traduit par Hélène Commin. Illustré par Albert Chazelle. Réédition remaniée.
 Caroline Quine - série Alice : Alice en Écosse. Illustré par Albert Chazelle, traduit par Anne Joba.
 Caroline Quine - série Une enquête des sœurs Parker : Le Secret du clocher. Traduit par Claude Voilier, illustré par Philippe Daure.1re édition.
 Caroline Quine - série Une enquête des sœurs Parker : Le Secret du chalet suisse. Traduit par Claude Voilier, illustré par Philippe Daure.1re édition.
@@ -1015,12 +1551,46 @@
 Verne, Jules Jules Verne - Le Maître du monde. Illustré par Raoul Auger
 Verne, Jules Jules Verne - Michel Strogoff tome 2. Illustré par René Georges-Gautier.
 Verne, Jules Jules Verne - Nord contre Sud. Illustré par Léon Benett. 1re édition.
-Verne, Jules Jules Verne - Le Rayon vert. Illustré par François Batet. Réédition remaniée[23].
+Verne, Jules Jules Verne - Le Rayon vert. Illustré par François Batet. Réédition remaniée.
 Verne, Jules Jules Verne - Le Secret de Wilhelm Storitz. Illustré par Guy Maynard.
-Michel Zévaco - L'Héroïne. Illustré par Jacques Poirier. 1re édition.
-1975
-Amédée Achard - série Monsieur de la Guerche : La Fiancée de Monsieur de la Guerche. Illustré par Yvon Le Gall. Nlle édition[54],[23].
-Mabel Esther Allan - Les Vacances de Cécile. Traduit par Alain Valière. Illustrations de Gilles Valdès. Réédition remaniée[23].
+Michel Zévaco - L'Héroïne. Illustré par Jacques Poirier. 1re édition.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>3e série : 1974 à 1982 (logo Hachette carré)</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Amédée Achard - série Monsieur de la Guerche : La Fiancée de Monsieur de la Guerche. Illustré par Yvon Le Gall. Nlle édition,.
+Mabel Esther Allan - Les Vacances de Cécile. Traduit par Alain Valière. Illustrations de Gilles Valdès. Réédition remaniée.
 Cécile Aubry - Hervé et l'anneau d'émeraude. Illustré par Jacques Pecnard. 1re édition.
 Auteurs en herbe, Les jeunes écrivent pour les jeunes : Et s'il n'en reste qu'un…. Illustré par Michel Gourlier
 Georges Bayard - série Michel Thérais : Michel fait un rallye. Illustré par Philippe Daure.
@@ -1030,7 +1600,7 @@
 Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et l'Émetteur pirate. Illustré par Albert Chazelle.
 Anthony Buckeridge - série Bennett : Bennett dans le bain. Illustré par Daniel Billon, texte français de Olivier Séchan.
 Anthony Buckeridge - série Bennett : Bennett et ses grenouilles. Illustré par Jean Reschofsky, texte français de Olivier Séchan.
-Alexandre Dumas - Les Trois Mousquetaires. Illustré par Daniel Billon. Réédition remaniée[23],[14].
+Alexandre Dumas - Les Trois Mousquetaires. Illustré par Daniel Billon. Réédition remaniée,.
 Philippe Ébly - série Les Conquérants de l'impossible : La Ville qui n'existait pas. Illustré par Yvon Le Gall.
 Sid Fleischman - Django, le Gitan du Texas. Illustré par Moles, traduit par Jean Muray. 1re édition.
 Sid Fleischman - Le Grand Coquin du Missouri. Illustré par Moles, traduit par Olivier Séchan. 1re édition.
@@ -1039,7 +1609,7 @@
 Alfred Hitchcock - série Les Trois Jeunes Détectives : L'Aigle qui n'avait plus qu'une tête. Illustré par Jacques Poirier, texte français de Claude Voilier.
 Colin Hodgkinson - La Rage de piloter. Traduit par Renée Tesnière. Illustré par Philippe Daure. 1re édition.
 Rudyard Kipling - Capitaines courageux. Illustré par Daniel Billon, traduction de L. Fabulet et Ch. Fountaine-Walker.
-London, Jack Jack London - Belliou-la-fumée. Traduit par Louis Postif. Illustré par Jacques Pecnard. Réédition remaniée[23].
+London, Jack Jack London - Belliou-la-fumée. Traduit par Louis Postif. Illustré par Jacques Pecnard. Réédition remaniée.
 Lieutenant X - série Langelot : Langelot agent secret. Illustré par Maurice Paulin.
 Lieutenant X - série Langelot : Langelot et la Danseuse. Illustré par Maurice Paulin.
 Lieutenant X - série Langelot : Langelot et l'Avion détourné. Illustré par Maurice Paulin.
@@ -1051,9 +1621,9 @@
 Lieutenant X - série Langelot : Langelot pickpocket. Illustré par Maurice Paulin.
 Lieutenant X - série Langelot : Une offensive signée Langelot. Illustré par Maurice Paulin.
 Lieutenant X - série Langelot : Langelot et l'Inconnue. Illustré par Maurice Paulin.
-Henry de Monfreid - Les Secrets de la mer Rouge. Illustré par Paul Durand. Réédition remaniée[23].
+Henry de Monfreid - Les Secrets de la mer Rouge. Illustré par Paul Durand. Réédition remaniée.
 Ludek Pesek - Les Exilés de l'espace. Traduit par Gaston Dehesse. Illustré par Yvon Le Gall. 1re édition.
-Quine, Caroline Caroline Quine - série Alice : Alice et le Carnet vert. Illustré par Guy Maynard et Albert Chazelle, traduit par Anne Joba. Réédition remaniée[23].
+Quine, Caroline Caroline Quine - série Alice : Alice et le Carnet vert. Illustré par Guy Maynard et Albert Chazelle, traduit par Anne Joba. Réédition remaniée.
 Caroline Quine - série Alice : Alice à Paris. Illustré par Albert Chazelle, traduit par Anne Joba.
 Caroline Quine - série Alice : Alice et la Malle mystérieuse. Illustré par Albert Chazelle, traduit par Claude Voilier.
 Caroline Quine - série Alice : Alice et le Robot. Illustré par Albert Chazelle, traduit par Anne Joba.
@@ -1061,13 +1631,47 @@
 Caroline Quine - série Une enquête des sœurs Parker : Le Beau Garçon du Pacifique. Illustré par Philippe Daure, traduit par Claude Voilier.
 Lucie Rauzier-Fontayne - Juliette et les Motocyclistes. Illustré par Robert Bressy. 1re édition.
 Ann Rutgers Van Der Loeff - L'Oregon était au bout de la piste. Traduit par Lisa Rosenbaum, illustré par Louis Moles. 1re édition.
-Jules Verne, André Laurie - L'Épave du Cynthia. Illustré par George Roux. Réédition remaniée[23].
+Jules Verne, André Laurie - L'Épave du Cynthia. Illustré par George Roux. Réédition remaniée.
 Verne, Jules Jules Verne - Le Volcan d'or. Illustré par George Roux. 1re édition.
 Verne, Jules Jules Verne - Fils d'Irlande. Illustré par Léon Benett. 1re édition.
-Verne, Jules Jules Verne - Un billet de loterie. Illustré par Georges Roux. Nlle édition[54],[23].
-Véry, Pierre Pierre Véry - Les Héritiers d'avril. Illustré par Inconnu. Réédition remaniée[23].
-1976
-Amédée Achard - série Monsieur de la Guerche : Les Chevauchées de M. de La Guerche. Illustré par Jean Reschofsky. Nlle édition[54],[23].
+Verne, Jules Jules Verne - Un billet de loterie. Illustré par Georges Roux. Nlle édition,.
+Véry, Pierre Pierre Véry - Les Héritiers d'avril. Illustré par Inconnu. Réédition remaniée.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>3e série : 1974 à 1982 (logo Hachette carré)</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1976</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Amédée Achard - série Monsieur de la Guerche : Les Chevauchées de M. de La Guerche. Illustré par Jean Reschofsky. Nlle édition,.
 Auteurs en herbe, Les jeunes écrivent pour les jeunes : Sans compter l'imprévu…. Illustré par Paul Durand
 Georges Bayard - L'École des détectives. Illustré par Alain d'Orange.
 Georges Bayard - série Michel Thérais : Michel et le Trésor perdu. Illustré par Philippe Daure.
@@ -1079,7 +1683,7 @@
 Anthony Buckeridge - série Bennett : Bennett et le Général. Illustré par Daniel Billon, traduit par Vladimir Volkoff.
 commandant L'Herminier - L'Odyssée du "Casabianca". Illustré par J.P. Ariel. Réédition remaniée (nouvelle couverture et nouveau titre. L'édition précédente de la Bibliothèque verte portait le titre : Casabianca)
 Fenimore Cooper - L'Espion de l'indépendance. Traduit par Inconnu. Illustré par Louis Moles. 1re édition.
-Curwood, James Oliver James Oliver Curwood - La Piste du bonheur. Traduit par Louis Postif. Illustré par Françoise Boudignon. Nlle édition[54],[23].
+Curwood, James Oliver James Oliver Curwood - La Piste du bonheur. Traduit par Louis Postif. Illustré par Françoise Boudignon. Nlle édition,.
 Alexandre Dumas - Le Comte de Monte-Cristo, tome 1. Illustré par Jean Reschofsky.
 Alexandre Dumas - Le Comte de Monte-Cristo, tome 2. Illustré par Jean Reschofsky.
 Henry Dupuy-Mazuel - Le Miracle des loups. Illustré par J.-P. Ariel.
@@ -1087,8 +1691,8 @@
 Wilfried Erdmann - La Croisière des mille jours. Traduit par Michel Théry. Illustré par Jacques Poirier. 1re édition.
 Luce Fillol - L'Île au diable. Illustré par Paul Durand. 1re édition.
 Esther Forbes - Des étoiles nouvelles (Johnny Tremain). Traduit par Yves Malartic. Illustré par Louis Moles. 1re édition.
-Sid Fleischman - Monsieur Mystère et Cie. Traduit par Olivier Séchan, illustré par François Batet. Réédition remaniée[23].
-Jean Gisclon - Les As de l'escadrille La Fayette[85]. Illustré par Georges Beuville. 1re édition.
+Sid Fleischman - Monsieur Mystère et Cie. Traduit par Olivier Séchan, illustré par François Batet. Réédition remaniée.
+Jean Gisclon - Les As de l'escadrille La Fayette. Illustré par Georges Beuville. 1re édition.
 David Hamilton - série Buffalo Bill : Mille dollars pour Buffalo Bill. Traduit par Jean-Claude Deret, illustré par François Batet. 1re édition.
 David Hamilton - série Buffalo Bill : Buffalo Bill contre Nuage Rouge. Traduit par Jean-Claude Deret, illustré par François Batet. 1re édition.
 Betsy Haynes - Une nièce de l'oncle Tom. Traduit par Anne Joba. Illustré par Paul Durand. 1re édition.
@@ -1098,12 +1702,12 @@
 Lieutenant X - série Langelot : Langelot et les Saboteurs. Illustré par Maurice Paulin.
 Lieutenant X - série Langelot : Langelot sur la Côte d'Azur. Illustré par Maurice Paulin.
 Jack London - Contes des mers du sud. Traduit par Paul Gruyer et Louis Postif. Illustré par Maurice Paulin. Réédition remaniée (Seconde nouvelle couverture).
-Jack London - Croc-Blanc. Texte français de Paul Gruyer, Louis Postif. Illustré par Françoise Boudignon. Réédition remaniée[23].
+Jack London - Croc-Blanc. Texte français de Paul Gruyer, Louis Postif. Illustré par Françoise Boudignon. Réédition remaniée.
 Jack London - La Fièvre de l'or. Illustré par Jacques Pecnard, traduit par Louis Postif. Réédition remaniée.
 Marcelle Manceau - Les Vergers de Kandahar. Illustré par Annie Beynel. 1re édition.
 Daniel P. Mannix - La Cabane du sorcier. Traduit par Jean Muray. Illustré par Louis Moles. 1re édition.
 Herman Melville - Un insurgé américain ou Israël Potter. Illustré par Yvon Le Gall, traduit par C. Cestre.
-Caroline Quine - série Alice : Alice et le Médaillon d'or. Traduit par Hélène Commin. Illustré par Joseph Sheldon, Albert Chazelle. Réédition remaniée[23].
+Caroline Quine - série Alice : Alice et le Médaillon d'or. Traduit par Hélène Commin. Illustré par Joseph Sheldon, Albert Chazelle. Réédition remaniée.
 Caroline Quine - série Alice : Alice en safari. Illustré par Albert Chazelle, traduit par Anne Joba.
 Caroline Quine - série Alice : Alice et la Diligence. Illustré par série Albert Chazelle, traduit par Claude Voilier.
 Caroline Quine - série Alice : Alice et la Statue qui parle. Illustré par Albert Chazelle, traduit par Anne Joba.
@@ -1112,71 +1716,139 @@
 Caroline Quine - série Alice : Alice à la réserve des oiseaux. Illustré par Jean-Louis Mercier, traduit par Anne Joba.
 Caroline Quine - série Une enquête des sœurs Parker : L'Oiseau de bambou. Illustré par Philippe Daure, traduit par Claude Voilier.
 Caroline Quine - série Une enquête des sœurs Parker : Le Tigre de pierre. Illustré par Philippe Daure, traduit par Claude Voilier.
-Walter Scott - Ivanhoé. Illustré par Françoise Boudignon, traduit par Armand Rio. Réédition remaniée[23].
-Marc Soriano - L'Homme du vendredi. Illustré par Philippe Daure. Réédition remaniée[23].
+Walter Scott - Ivanhoé. Illustré par Françoise Boudignon, traduit par Armand Rio. Réédition remaniée.
+Marc Soriano - L'Homme du vendredi. Illustré par Philippe Daure. Réédition remaniée.
 P. J. Stahl - Maroussia. Illustré par François Batet.
-Colonel Rozanoff,Marcel Jullian - Pilote d'essai. Illustré par Jean Reschofsky. Réédition remaniée[23].
+Colonel Rozanoff,Marcel Jullian - Pilote d'essai. Illustré par Jean Reschofsky. Réédition remaniée.
 Verne, Jules Jules Verne - L'Étonnant Reportage de Claudius Bombarnac. Illustré par Léon Benett. 1re édition.
 Verne, Jules Jules Verne - Maître du monde. Illustré par Raoul Auger.
-Verne, Jules Jules Verne - Deux ans de vacances. Illustré par Léon Benett.
-1977
-André Allemand - Parachutiste d'essais. Illustré par Jean Reschofsky. Réédition remaniée[23]
-Isaac Asimov - série Jim Spark : Jim Spark, le chasseur d'étoiles[86]. Illustré par Claude Lacroix. Traduit par Guy Abadia. 1re édition[87].
+Verne, Jules Jules Verne - Deux ans de vacances. Illustré par Léon Benett.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>3e série : 1974 à 1982 (logo Hachette carré)</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>André Allemand - Parachutiste d'essais. Illustré par Jean Reschofsky. Réédition remaniée
+Isaac Asimov - série Jim Spark : Jim Spark, le chasseur d'étoiles. Illustré par Claude Lacroix. Traduit par Guy Abadia. 1re édition.
 Cécile Aubry - Hervé au château. Illustré par Romain Simon. 1re édition.
 Cécile Aubry - Séverine, Belle et Sébastien : Le Collier bleu. Photographies de Jacky Berrueta.
 Auteurs en herbe, Les jeunes écrivent pour les jeunes : Jeunesse oblige. Illustré par François Batet.
 Georges Bayard - série Michel Thérais : Michel et les Deux Larrons. Illustré par Philippe Daure.
-B. J. Berry - Le Rodéo de la dernière chance. Traduit par Jean-Claude Deret. Illustré par Batz. 1re édition[87].
+B. J. Berry - Le Rodéo de la dernière chance. Traduit par Jean-Claude Deret. Illustré par Batz. 1re édition.
 Jean-Claude Bourret - La Nouvelle Vague des soucoupes volantes. Illustré par Pierre Leroy. 1re édition.
 Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons au concours hippique. Illustré par Robert Bressy. 1re édition.
 Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et la Clef-minute. Illustré par Robert Bressy. 1re édition.
 Anthony Buckeridge - série Bennett : Bennett entre en scène. Illustré par Daniel Billon, traduit par Olivier Séchan.
-Erckmann-Chatrian - L'Ami Fritz. Traduit par Inconnu. Illustré par Françoise Pichard. Réédition remaniée[23].
-Agatha Christie - Dix petits nègres. Illustré par Annie-Claude Martin, traduit par Louis Postif. 1re édition[87].
+Erckmann-Chatrian - L'Ami Fritz. Traduit par Inconnu. Illustré par Françoise Pichard. Réédition remaniée.
+Agatha Christie - Dix petits nègres. Illustré par Annie-Claude Martin, traduit par Louis Postif. 1re édition.
 James Oliver Curwood - Les Neiges du Grand Nord. Illustré par Françoise Pichard, traduit par Louis Postif. 1re édition.
-James Oliver Curwood - La Vallée du silence. Illustré par Pierre Simon, traduit par Louis Postif. Nlle édition[54],[23].
+James Oliver Curwood - La Vallée du silence. Illustré par Pierre Simon, traduit par Louis Postif. Nlle édition,.
 Philippe Ébly - série Les Conquérants de l'impossible : Celui qui revenait de loin. Illustré par Yvon Le Gall.
 Philippe Ébly - série Les Conquérants de l'impossible : Pour sauver le diamant noir. Illustré par Yvon Le Gall.
 Philippe Ébly - série Les Évadés du temps : Les Trois Portes. Illustré par Claude Lacroix.
-Erckmann-Chatrian - L'Ami Fritz. Illustré par Françoise Pichard. Réédition remaniée[23].
+Erckmann-Chatrian - L'Ami Fritz. Illustré par Françoise Pichard. Réédition remaniée.
 Walter Farley - série L'Étalon noir : La Révolte de l'étalon noir. Illustré par Raoul Auger, traduit par Jean Muray.
 Féval, Paul Paul Féval - Le Loup blanc. Illustré par (Inconnu).
 Marc Flament - série Fils de la flibuste : Course-poursuite aux Caraïbes. Illustré par Michel de Séréville. 1re édition.
 Marc Flament - série Fils de la flibuste : Les Révoltés du "Killarney". Illustré par Michel de Séréville. 1re édition.
-Sid Fleischman - Jack, chercheur d'or. Illustré par François Batet, traduit par Olivier Séchan. Réédition remaniée[23].
+Sid Fleischman - Jack, chercheur d'or. Illustré par François Batet, traduit par Olivier Séchan. Réédition remaniée.
 David Hamilton - série Buffalo Bill : Buffalo Bill contre les hors-la-loi. Traduit par Jean-Claude Deret, illustré par François Batet. 1re édition.
 David Hamilton - série Buffalo Bill : Buffalo Bill à Dodge City. Traduit par Jean-Claude Deret, illustré par François Batet. 1re édition.
 Betsy Haynes - Les Baleinières de Long Island. Traduit par Anne Joba. Illustré par Michel de Séréville. 1re édition
-Robert Heinlein - La Patrouille de l'espace. Traduit par Jean Muray. Illustré par (Inconnu). 1re édition[87].
+Robert Heinlein - La Patrouille de l'espace. Traduit par Jean Muray. Illustré par (Inconnu). 1re édition.
 Alfred Hitchcock - série Les Trois Jeunes Détectives : Le Serpent qui fredonnait. Illustré par Jacques Poirier, traduit par Claude Voilier.
 Irene Hunt - Cinq printemps dans la tourmente. Illustré par Paul Durand, traduit par Jean Muray. 1re édition.
-Paul d'Ivoi, H. Chabrillat - Les Cinq Sous de Lavarède. Illustré par Inconnu. Réédition remaniée[23]
-Maurice Leblanc - série Les Aventures d'Arsène Lupin : Le Bouchon de cristal. Illustré par Jean-Marie Vivès. Réédition remaniée[23],[87].
+Paul d'Ivoi, H. Chabrillat - Les Cinq Sous de Lavarède. Illustré par Inconnu. Réédition remaniée
+Maurice Leblanc - série Les Aventures d'Arsène Lupin : Le Bouchon de cristal. Illustré par Jean-Marie Vivès. Réédition remaniée,.
 Maurice Leblanc - série Arsène Lupin : Les Confidences d'Arsène Lupin. Illustré par Jean-Marie Vivès. 1re édition
-Maurice Leblanc - série Arsène Lupin : La Demeure mystérieuse. Illustrateur inconnu. 1re édition[87].
+Maurice Leblanc - série Arsène Lupin : La Demeure mystérieuse. Illustrateur inconnu. 1re édition.
 Lieutenant X - série Langelot : Langelot et le plan Rubis. Illustré par Maurice Paulin.
 Lieutenant X - série Langelot : Langelot et les Espions. Illustré par Maurice Paulin.
 Lieutenant X - série Langelot : Langelot sur l'Île déserte. Illustré par Maurice Paulin.
 Jack London - Fille des neiges. Traduit par Louis Postif. Illustré par Françoise Boudignon.
-Jack London - En pays lointain. Traduit par Louis Postif. Illustré par Michel de Séréville. Réédition remaniée[23].
-François Molnar - Les Garçons de la rue Paul. Traduit par André Adorjan et Ladislas Gara. Illustré par Paul Durand. Réédition remaniée[23].
+Jack London - En pays lointain. Traduit par Louis Postif. Illustré par Michel de Séréville. Réédition remaniée.
+François Molnar - Les Garçons de la rue Paul. Traduit par André Adorjan et Ladislas Gara. Illustré par Paul Durand. Réédition remaniée.
 Walt Morey - L'Année où j'ai eu mon poney. Traduit par Lisa Rosenbaum. Illustré par Daniel Billon. 1re édition.
 Gianni Padoan - Robinson de l'espace. Traduit par Thierry Séchan. Illustré par Pierre Leroy. 1re édition.
-Caroline Quine - série Alice : Alice au camp des biches. Traduit par Anne Joba. Illustré par Jean-Louis Mercier. Réédition remaniée[23].
+Caroline Quine - série Alice : Alice au camp des biches. Traduit par Anne Joba. Illustré par Jean-Louis Mercier. Réédition remaniée.
 Caroline Quine - série Une enquête des sœurs Parker : L’Anneau de jade. Illustré par Philippe Daure, traduit par Claude Voilier.
 Caroline Quine - série Une enquête des sœurs Parker : Le Rubis clignotant. Illustré par Philippe Daure, traduit par Claude Voilier.
 Marjorie Kinnan Rawlings - Jody et le Faon. Illustré par Paul Durand. Traduit par Denise Van Moppès.
-Robert Louis Stevenson - Dr Jekyll et M. Hyde. Illustré par Inconnu, traduit par Jean Muray. Réédition remaniée[23].
+Robert Louis Stevenson - Dr Jekyll et M. Hyde. Illustré par Inconnu, traduit par Jean Muray. Réédition remaniée.
 Georges G. Toudouze - Aux feux tournants des phares. Illustré par Paul Durand. 1re édition.
-Jean-Jacques Tourteau - série Les Missions du Dr Marchal : Blouses blanches et noirs desseins. Illustrations de Claude Lacroix. 1re édition[87].
+Jean-Jacques Tourteau - série Les Missions du Dr Marchal : Blouses blanches et noirs desseins. Illustrations de Claude Lacroix. 1re édition.
 Maurice Trintignant - Pilote de courses. Illustré par Jean Reschofsky. Réédition remaniée (seconde nouvelle couverture de Jean Reschofsky).
 Verne, Jules Jules Verne - L'Agence Thompson and Co. Illustré par Léon Benett. 1re édition.
 Verne, Jules Jules Verne - Voyage au centre de la Terre.
 Verne, Jules Jules Verne - Le Château des Carpathes.
-Verne, Jules Jules Verne - Superbe Orénoque.
-1978
-Isaac Asimov - série Jim Spark : Jim Spark et la Cité sous la mer[88]. Illustré par Claude Lacroix. Traduit par Guy Abadia. 1re édition[87].
-Isaac Asimov - série Jim Spark : Jim Spark et les Écumeurs de l'espace[89]. Illustré par Claude Lacroix. Traduit par Jean-Claude Deret. 1re édition[87].
+Verne, Jules Jules Verne - Superbe Orénoque.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>3e série : 1974 à 1982 (logo Hachette carré)</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1978</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Isaac Asimov - série Jim Spark : Jim Spark et la Cité sous la mer. Illustré par Claude Lacroix. Traduit par Guy Abadia. 1re édition.
+Isaac Asimov - série Jim Spark : Jim Spark et les Écumeurs de l'espace. Illustré par Claude Lacroix. Traduit par Jean-Claude Deret. 1re édition.
 Cécile Aubry - Belle et Sébastien : Le Refuge du Grand Baou. Illustrations d'Annie-Claude Martin.
 Auteurs en herbe, Les jeunes écrivent pour les jeunes : Espoir au poing. Illustré par Daniel Billon.
 Georges Bayard - série Michel Thérais : Michel mène l'enquête. Illustré par Philippe Daure.
@@ -1185,26 +1857,26 @@
 Georges Bayard - série Michel Thérais : Michel dans l'avalanche. Illustré par Philippe Daure.
 Georges Bayard - série Michel Thérais : Michel fait du vol à voile. Illustré par Philippe Daure.
 Georges Bayard - série Michel Thérais : Michel et la Super-maquette. Illustré par Philippe Daure. Avant-propos de Jean Jules-Verne.
-Robert Bigot - Les Lumières du matin[90]. Illustré par Inconnu. 1re édition[87].
+Robert Bigot - Les Lumières du matin. Illustré par Inconnu. 1re édition.
 Dickens, Charles Charles Dickens - Oliver Twist. Illustré par Georges Beuville. Traduit par Jean Muray. Réédition remaniée.
-Dickens, Charles Charles Dickens - David Copperfield. Illustré par Françoise Boudignon. Traduit par Paul Lorain. Réédition remaniée[23].
-Dickens, Charles Charles Dickens - Les Aventures de M. Pickwick. Illustré par Jean Reschofsky. Traduit par Paul Lorain. Réédition remaniée[23].
+Dickens, Charles Charles Dickens - David Copperfield. Illustré par Françoise Boudignon. Traduit par Paul Lorain. Réédition remaniée.
+Dickens, Charles Charles Dickens - Les Aventures de M. Pickwick. Illustré par Jean Reschofsky. Traduit par Paul Lorain. Réédition remaniée.
 Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et le Cigare volant. Illustré par Robert Bressy. 1re édition.
 Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et les Piroguiers. Illustré par Robert Bressy. 1re édition.
 Anthony Buckeridge - série Bennett : Bennett et le Pigeon voyageur. Illustré par Daniel Billon, traduit par Olivier Séchan.
-A. J. Cronin - Les Années d'illusion[91]. Traduit par Florence Glass. Illustré par Sylvaine Château-Peyrols. Réédition remaniée[23],[87].
-James Oliver Curwood - Les Cœurs les plus farouches. Illustré par François Bourgeon, traduit par Léon Bocquet. Nlle édition[54],[23].
-James Oliver Curwood - La Forêt en flammes. Illustré par Frédéric Boulogne. Traduit par Louis Postif. 1re édition[87].
-James Oliver Curwood - La Voyageuse traquée. Illustré par Jean-Pierre Meyer. Traduit par Louis Postif. 1re édition[87].
-Daudet, Alphonse Alphonse Daudet - Lettres de mon moulin. Illustré par Michel de Séréville. Réédition remaniée[92].
+A. J. Cronin - Les Années d'illusion. Traduit par Florence Glass. Illustré par Sylvaine Château-Peyrols. Réédition remaniée,.
+James Oliver Curwood - Les Cœurs les plus farouches. Illustré par François Bourgeon, traduit par Léon Bocquet. Nlle édition,.
+James Oliver Curwood - La Forêt en flammes. Illustré par Frédéric Boulogne. Traduit par Louis Postif. 1re édition.
+James Oliver Curwood - La Voyageuse traquée. Illustré par Jean-Pierre Meyer. Traduit par Louis Postif. 1re édition.
+Daudet, Alphonse Alphonse Daudet - Lettres de mon moulin. Illustré par Michel de Séréville. Réédition remaniée.
 Daniel Defoe - Robinson Crusoé. Illustré par François Batet.
-Dickens, Charles Charles Dickens - David Copperfield. Illustré par Françoise Boudignon. Traduit par Paul Lorain. Réédition remaniée[23].
+Dickens, Charles Charles Dickens - David Copperfield. Illustré par Françoise Boudignon. Traduit par Paul Lorain. Réédition remaniée.
 Donagan - série Les Globe-Croqueurs : Les Globe-Croqueurs. Illustré par Pierre Leroy. 1re édition.
 Philippe Ébly - série Les Conquérants de l'impossible : Destination Uruapan. Illustré par Yvon Le Gall.
 Philippe Ébly - série Les Conquérants de l'impossible : La Ville qui n'existait pas. Illustré par Yvon Le Gall.
 Philippe Ébly - série Les Conquérants de l'impossible : Le Robot qui vivait sa vie. Illustré par Claude Lacroix.
 Philippe Ébly - série Les Évadés du temps : Le Voyageur de l'au-delà. Illustré par Claude Lacroix.
-Erckmann-Chatrian - Histoire d'un conscrit de 1813[93]. Illustré par Françoise Pichard. Réédition remaniée[23].
+Erckmann-Chatrian - Histoire d'un conscrit de 1813. Illustré par Françoise Pichard. Réédition remaniée.
 Walter Farley - série L'Étalon noir : Le Courage de l'étalon noir. Illustré par François Batet, texte de Jean Muray.
 Walter Farley - série Flamme, cheval sauvage : Flamme, cheval sauvage. Illustré par J.-P. Ariel, traduit par J. Bréant.
 Grégoire Fédocéiev - Pachka du Ravin de l'Ours. Illustré par Jacques Poirier, traduit par Magdelaine Strowski.
@@ -1212,8 +1884,8 @@
 Marc Flament - série Fils de la flibuste : Le Trésor fabuleux des Incas. Illustré par Michel de Séréville. 1re édition.
 Marc Flament - série Fils de la flibuste : Les Rescapés de la mer du Sud. Illustré par Michel de Séréville. 1re édition.
 Robert Franklin Leslie - Mes ours et moi. Traduit par Hélène Vinès. Illustré par Maurice Parent. 1re édition.
-Monique Gautier - Les Ronces de l'hiver. Illustré par Jacques Poirier. 1re édition[87].
-Nicolas Gogol - Tarass Boulba. Traduit par Louis Viardot, illustré par Françoise Boudignon. 1re édition[87].
+Monique Gautier - Les Ronces de l'hiver. Illustré par Jacques Poirier. 1re édition.
+Nicolas Gogol - Tarass Boulba. Traduit par Louis Viardot, illustré par Françoise Boudignon. 1re édition.
 David Hamilton - série Buffalo Bill : Buffalo Bill sur la piste du Montana. Traduit par Jean-Claude Deret, illustré par François Batet. 1re édition.
 David Hamilton - série Buffalo Bill : Un Colt pour Buffalo Bill. Traduit par Jean-Claude Deret, illustré par François Batet. 1re édition.
 Michael Hardcastle - série Allan Blackpool : Le Premier But d'Allan Blackpool. Traduit par Julie Pavesi, illustré par Didier Convard. 1re édition.
@@ -1225,102 +1897,440 @@
 Alexander Kent - série Richard Bolitho : Richard Bolitho à l'abordage. Illustré par Philippe Daure. Traduit par Jean Muray.
 Lieutenant X - série Langelot : Langelot chez le Présidentissime. Illustré par Maurice Paulin.
 Ghislaine Laramée - L'Oncle du Canada. Illustré par Daniel Billon. 1re édition.
-no 465 : Maurice Leblanc - série Les Aventures d'Arsène Lupin : Arsène Lupin contre Herlock Sholmès. Illustré par Jean-Marie Vivès. Réédition remaniée[23],[87].
+no 465 : Maurice Leblanc - série Les Aventures d'Arsène Lupin : Arsène Lupin contre Herlock Sholmès. Illustré par Jean-Marie Vivès. Réédition remaniée,.
 Lieutenant X - série Langelot : Langelot passe à l'ennemi. Illustré par Maurice Paulin.
 Lieutenant X - série Langelot : Langelot suspect. Illustré par Maurice Paulin.
-London, Jack Jack London - Les Enfants du froid. Illustré par Louis Postif. Traduit par Yves Beaujard. Nlle édition[54],[23].
-Pierre Mayet - La Malédiction d'Astaroth. Illustré par Alain Séral. 1re édition[87].
+London, Jack Jack London - Les Enfants du froid. Illustré par Louis Postif. Traduit par Yves Beaujard. Nlle édition,.
+Pierre Mayet - La Malédiction d'Astaroth. Illustré par Alain Séral. 1re édition.
 Daniel P. Mannix - Le Renard et le Chien courant. Traduit par Jean Dupont[Lequel ?]. Illustré par François Bourgeon. 1re édition.
-Caroline Quine - série Alice : Alice et le Médaillon d'or. Traduit par Hélène Commin. Illustré par Jean-Louis Mercier. Réédition remaniée[23].
-Caroline Quine - série Alice : Alice et le Fantôme. Illustré par Jean-Louis Mercier, traduit par Hélène Commin. Réédition remaniée[23].
+Caroline Quine - série Alice : Alice et le Médaillon d'or. Traduit par Hélène Commin. Illustré par Jean-Louis Mercier. Réédition remaniée.
+Caroline Quine - série Alice : Alice et le Fantôme. Illustré par Jean-Louis Mercier, traduit par Hélène Commin. Réédition remaniée.
 Caroline Quine - série Une enquête des sœurs Parker : La Menace dans le puits. Illustré par Philippe Daure, traduit par Claude Voilier.
 Caroline Quine - série Une enquête des sœurs Parker : Dans l’ombre de la tour. Illustré par Philippe Daure, traduit par Claude Voilier.
-Jane Rushing - Marie-Colombe. Traduit par Anne Joba, illustré par Sylvaine Château-Peyrols. 1re édition[87].
-Robert Silverberg - La Guerre du froid. Traduit par Jean-Claude de Deret. Illustré par Hervé Brouant. 1re édition[87].
+Jane Rushing - Marie-Colombe. Traduit par Anne Joba, illustré par Sylvaine Château-Peyrols. 1re édition.
+Robert Silverberg - La Guerre du froid. Traduit par Jean-Claude de Deret. Illustré par Hervé Brouant. 1re édition.
 Eric Speed - série Frank et Dave les rois du volant : Les 1000 milles du Mexique. Illustré par Pierre Leroy, traduit par Philippe Rouard. 1re édition.
 Stevenson, Robert Louis Robert Louis Stevenson - L'Île au trésor (Treasure island). Illustré par Jean Reschofsky, texte français de Pierre Lorain. Réédition remaniée.
-Jean-Jacques Tourteau - série Les Missions du D Marchal : L'Apocalypse blanche. Illustré par Marc Novi. 1re édition[87].
-Jean-Jacques Tourteau - série Les Missions du Dr Marchal : La Piste de la colère. Illustré par Inconnu. 1re édition[87].
-Jules Verne - Le Testament d'un excentrique. Illustré par Pierre Leroy d'après G. Roux.
-1979
-Alcott, Louisa May Louisa May Alcott - Les Quatre Filles du docteur March. Illustré par Guy Maynard, traduit par P.-J. Stahl. Réédition remaniée[23].
-Isaac Asimov - série Jim Spark : Jim Spark et le projet Lumière[94]. Illustré par Philippe Créhange. Traduit par Guy Abadia. 1re édition[87].
+Jean-Jacques Tourteau - série Les Missions du D Marchal : L'Apocalypse blanche. Illustré par Marc Novi. 1re édition.
+Jean-Jacques Tourteau - série Les Missions du Dr Marchal : La Piste de la colère. Illustré par Inconnu. 1re édition.
+Jules Verne - Le Testament d'un excentrique. Illustré par Pierre Leroy d'après G. Roux.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>3e série : 1974 à 1982 (logo Hachette carré)</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1979</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Alcott, Louisa May Louisa May Alcott - Les Quatre Filles du docteur March. Illustré par Guy Maynard, traduit par P.-J. Stahl. Réédition remaniée.
+Isaac Asimov - série Jim Spark : Jim Spark et le projet Lumière. Illustré par Philippe Créhange. Traduit par Guy Abadia. 1re édition.
 Cécile Aubry - Belle et Sébastien : Le Refuge du Grand Baou. Illustrations d'Annie-Claude Martin.
 Gilles Augier - Le Clandestin de la rivière. Illustré par Yvon Legall, traduit par Inconnu. 1re édition.
 Auteurs en herbe, Les jeunes écrivent pour les jeunes : À la conquête du futur. Illustré par Antoine Zuber.
 Georges Bayard - série Michel : Michel poursuit des ombres. Illustré par Philippe Daure.
 Georges Bayard - série Michel : Michel en plongée. Illustré par Philippe Daure.
 Georges Bayard - série Michel : Michel et les Maléfices. Illustré par Philippe Daure.
-Beecher Stowe, Harriet Harriet Beecher Stowe : La Case de l'oncle Tom. Illustré par Paul Durand. Traduction de Louis Énault. Réédition remaniée[92].
+Beecher Stowe, Harriet Harriet Beecher Stowe : La Case de l'oncle Tom. Illustré par Paul Durand. Traduction de Louis Énault. Réédition remaniée.
 Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et la Bouteille à la mer. Illustré par Robert Bressy. 1re édition.
 Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et les Skieurs de fond. Illustré par Robert Bressy. 1re édition.
 Bourliaguet, Léonce Léonce Bourliaguet - Le Moulin de Catuclade. Illustré par Thierry Gaudrieau. Réédition remaniée.
 Anthony Buckeridge - série Bennett : Bennett se met en boule. Illustré par Daniel Billon, texte d'Olivier Séchan.
-Curwood, James Oliver James Oliver Curwood - Bari, chien-loup. Texte français de Léon Bocquet. Illustré par Tibor Csernus. Réédition remaniée[92].
-James Oliver Curwood - La Vieille Route du Québec. Illustré par Christian Grugeon, traduit par Louis Postif. 1re édition[87].
-Daudet, Alphonse Alphonse Daudet : Lettres de mon moulin. Illustré par Michel de Séréville. Réédition remaniée[34].
-Daudet, Alphonse Alphonse Daudet : Contes choisis. Illustré par Daniel Billon. Réédition remaniéeRéédition remaniée[34].
-Jean-Pierre Decrest - À manipuler avec précaution. Illustré par Serge Ceccarelli. 1re édition[87].
-Jean-Pierre Decrest - Le Réseau Pluton. Illustré par Philippe Corré. 1re édition[87].
-Defoe, Daniel Daniel Defoe - Robinson Crusoé. Illustré par Annie-Claude Martin. Traduit par (Inconnu). Réédition remaniée[23],[31]
+Curwood, James Oliver James Oliver Curwood - Bari, chien-loup. Texte français de Léon Bocquet. Illustré par Tibor Csernus. Réédition remaniée.
+James Oliver Curwood - La Vieille Route du Québec. Illustré par Christian Grugeon, traduit par Louis Postif. 1re édition.
+Daudet, Alphonse Alphonse Daudet : Lettres de mon moulin. Illustré par Michel de Séréville. Réédition remaniée.
+Daudet, Alphonse Alphonse Daudet : Contes choisis. Illustré par Daniel Billon. Réédition remaniéeRéédition remaniée.
+Jean-Pierre Decrest - À manipuler avec précaution. Illustré par Serge Ceccarelli. 1re édition.
+Jean-Pierre Decrest - Le Réseau Pluton. Illustré par Philippe Corré. 1re édition.
+Defoe, Daniel Daniel Defoe - Robinson Crusoé. Illustré par Annie-Claude Martin. Traduit par (Inconnu). Réédition remaniée,
 Lavinia Derwent - Tempête sur l'île sauvage. Illustré par François Bourgeon. Traduit par Martine Millon. 1re édition.
 Lavinia Derwent - Le Garçon de l'île sauvage. Illustré par Antoine Zuber. Traduit par Martine Millon. 1re édition.
 Philippe Ébly - série Les Conquérants de l'impossible : Celui qui revenait de loin. Illustré par Yvon Le Gall.
 Philippe Ébly - série Les Conquérants de l'impossible : L'Évadé de l'an II. Illustré par Yvon Le Gall.
-Philippe Ébly </t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+Philippe Ébly - série Les Conquérants de l'impossible : Le Navire qui remontait le temps. Illustré par Yvon Le Gall.
+Philippe Ébly - série Les Conquérants de l'impossible : S.O.S. Léonard de Vinci. Illustré par Yvon Le Gall.
+Marc Flament - série Fils de la flibuste : Les Diables de la Jamaïque. Illustré par Michel de Séréville. 1re édition.
+Marc Flament - série Fils de la flibuste : L'Or du galion fantôme. Illustré par Michel de Séréville. 1re édition.
+Paula Fox - Le Voyage du négrier. Illustré par Cristobal, traduit par Jean Muray.
+Michael Hardcastle - série Allan Blackpool : Allan Blackpool tente une percée. Traduit par Philippe Rouard, illustré par Didier Convard. 1re édition.
+Michael Hardcastle - série Allan Blackpool : Allan Blackpool marque des points. Traduit par Philippe Rouard, illustré par Didier Convard. 1re édition.
+Jerome K. Jerome - Trois hommes dans un bateau. Illustré par Françoise Pichard, traduit par Maurice Beerblock. Réédition remaniée.
+Alfred Hitchcock - série Les Trois Jeunes Détectives : Au rendez-vous des revenants. Illustré par Jacques Poirier, couverture Yves Beaujard, traduction de Vladimir Volkoff.
+Alfred Hitchcock - série Les Trois Jeunes Détectives : Le Testament énigmatique. Illustré par Françoise Pichard, texte français de Jean Dupont.
+Alfred Hitchcock - série Les Trois Jeunes Détectives : Le Trombone du diable. Illustré par Jacques Poirier, traduit par Claude Voilier.
+Gil Lacq - Les Enfants de la guerre. Illustré par Serge Colard, Didier Rudelopt. 1re édition.
+Lieutenant X - série Langelot : Langelot agent secret. Illustré par Maurice Paulin.
+Lieutenant X - série Langelot : Langelot et le Fils du roi. Illustré par Maurice Paulin.
+Jack London - Croc-Blanc. Traduit par Paul Gruyer, Louis Postif. Illustré par Françoise Boudignon. Réédition remaniée (Réimpression de la nouvelle couverture).
+Jack London - L'Appel sauvage. Illustré par Jacques Pecnard. Traduit par Jean Muray. Réédition remaniée.
+Hector Malot - Sans famille. Illustré par Philippe Daure. Réédition remaniée,.
+Hector Malot - En famille. Illustré par Henriette Munière. Réédition remaniée,.
+Alberto Manzi - Le Village des fous. Traduit par Anne Bernard. Illustré par Alain Korkos. 1re édition.
+Scott O'Dell - Carlotta, l'héroïne de Californie. Traduit par Anne Joba. Illustré par Françoise Pichard. 1re édition.
+Scott O'Dell - La Perle noire. Illustré par Gilles Nifeneker, traduit par Jean Dupont, couverture de Annick Heyvang. Prix Hans Christian Andersen. 1re édition.
+Christian Piscaglia - S.O.S. radiations. Illustré par Christopher Smith. 1re édition.
+Caroline Quine - série Alice : Alice et le Chandelier. Illustré par Jean-Louis Mercier, traduit par Hélène Commin. Réédition remaniée,.
+Caroline Quine - série Alice : Alice et le Robot. Illustré par Albert Chazelle, traduit par Anne Joba.
+Caroline Quine - série Alice : Alice et les Chats persans. Illustré par Albert Chazelle, traduit par Anne Joba.
+Caroline Quine - série Alice : Alice en Écosse. Illustré par Albert Chazelle, traduit par Anne Joba.
+Caroline Quine - série Alice : Alice au bal masqué. Illustré par Jean-Louis Mercier, traduit par Hélène Commin.
+Caroline Quine - série Alice : Alice et le Médaillon d'or. Illustré par Jean-Louis Mercier, traduit par Hélène Commin.
+Caroline Quine - série Alice : Alice et la Malle mystérieuse. Illustré par Jean-Louis Mercier, traduit par Claude Voilier.
+Caroline Quine - série Alice : Alice aux îles Hawaï. Illustré par Jean-Louis Mercier, traduit par Anne Joba.
+Caroline Quine - série Une enquête des sœurs Parker : L’Impératrice de cire. Illustré par Philippe Daure.
+Antoine Reboul - Tu ne tueras point. Illustré par François Batet.
+Louis-Frédéric Rouquette - Le Grand Silence blanc. Illustré par Philippe Créhange et Christian Grugeon. Réédition remaniée.
+Sand, George George Sand - La Petite Fadette. Illustré par Albert Chazelle.
+Scott, Walter Walter Scott - Ivanhoé. Illustré par Françoise Boudignon, texte français de Armand Rio. Réédition remaniée.
+Sienkiewicz, Henryk Henryk Sienkiewicz - Quo vadis ?. Illustré par Claude Lacroix, traduit du polonais par B. Kozakiewicz et J-L de Janasz. Réédition remaniée.
+Eric Speed - série Frank et Dave les rois du volant : La Course des super-champions. Illustré par Pierre Leroy, traduit par Philippe Rouard. 1re édition.
+Eric Speed - série Frank et Dave les rois du volant : Le Rallye infernal. Illustré par Jean-François Gigot, traduit par Philippe Rouard. 1re édition.
+P. J. Stahl et Mary Mapes Dodge - Les Patins d'argent. Adapté par P. J. Stahl. Illustré par François Batet. Réédition remaniée.
+Jean-Jacques Tourteau - série Les Missions du Dr Marchal : La Dernière Course. Illustré par Yves Beaujard. 1re édition.
+Mark Twain - Les Aventures de Tom Sawyer. Illustré par Daniel Billon, texte français de P.-F Caillé.
+Jules Verne - De la Terre à la Lune. Illustré par Jean Reschofsky. Réédition remaniée.
+Jules Verne - Les Tribulations d'un Chinois en Chine. Illustré par Léon Benett. Réédition remaniée.
+David Wagoner - Les Chasseurs d'empreintes. Illustré par Cristobal, texte français de Lisa Rosenbaum. 1re édition.
+Henry Winterfeld - L'Affaire Caïus. Illustré par Paul Durand, traduit par Olivier Séchan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>3e série : 1974 à 1982 (logo Hachette carré)</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Alain-Fournier - Le Grand Meaulnes. Illustrations de Michèle Trumel. 1re édition.
+Max Artis - Koalas sans visa. Illustrations d'Angel Arias Crespo. 1re édition.
+Cécile Aubry - Belle et Sébastien : Le Document secret. Illustrations d'Annie-Claude Martin.
+Auteurs en herbe, Les jeunes écrivent pour les jeunes : Tant qu'il y a un ami…. Illustré par Chica
+Georges Bayard - série Michel Thérais : Michel au val d'enfer. Illustré par Philippe Daure. Réédition remaniée
+Georges Bayard - série Michel Thérais : Michel au refuge interdit. Illustré par Philippe Daure.
+Georges Bayard - série Michel Thérais : Michel et la Preuve par sept. Illustré par Philippe Daure.
+Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et les Bébés phoques. Illustré par Robert Bressy. 1re édition.
+Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons dans la Ville rose. Illustré par Robert Bressy. 1re édition.
+Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons au gouffre Marzal. Illustré par Robert Bressy. Réédition remaniée.
+Anthony Buckeridge - série Bennett : Bennett n'en rate pas une. Illustré par Daniel Billon, texte d'Olivier Séchan.
+Cooper, James Fenimore James Fenimore Cooper : Le Dernier des Mohicans. Illustré par Yves Beaujard. Réédition remaniée,.
+Alphonse Daudet : Contes du lundi. Illustré par Jean Reschofsky.
+Lavinia Derwent - L'Île sauvage en péril. Illustré par Antoine Zuber. Traduit par Martine Millon. 1re édition.
+Dickens, Charles Charles Dickens - Oliver Twist. Illustré par Georges Beuville. traduit par Jean Muray. Réédition remaniée.
+Walt Disney - Le Trou noir. Traduit par Philippe Rouard, illustré par Philippe Cousin. 1re édition.
+Donagan - série Les Globe-Croqueurs : Les Globe-Croqueurs et la fièvre Z. Illustré par Yves Beaujard. 1re édition.
+Philippe Ébly - série Les Conquérants de l'impossible : L'Éclair qui effaçait tout. Illustré par Yvon Le Gall.
+Philippe Ébly - série Les Conquérants de l'impossible : La Ville qui n'existait pas. Illustré par Yvon Le Gall.
+Philippe Ébly - série Les Conquérants de l'impossible : Le Naufragé des étoiles. Illustré par Yvon Le Gall.
+Philippe Ébly - série Les Évadés du temps : Volontaires pour l'inconnu. Illustré par Yvon Le Gall.
+Marc Flament - série Fils de la flibuste : Le Butin de Carthagène. Illustré par François Dermaut. 1re édition.
+Marc Flament - série Il était une fois dans l'Ouest : Cheval-Tonnerre sera ton nom. Illustré par François Dermaut. 1re édition.
+Marc Flament - série Il était une fois dans l'Ouest : Cheval-Tonnerre chez les Faces Pâles. Illustré par François Dermaut. 1re édition.
+Paula Fox - Le Poisson boiteux. Illustré par Laurie Jean Jordan, traduit par Anne Joba. 1re édition.
+Alfred Hitchcock - série Les Trois Jeunes Détectives : Le Dragon qui éternuait. Illustré par Jacques Poirier, traduction de Claude Voilier.
+Lieutenant X -  série Langelot : Langelot et l'Inconnue. Illustré par Maurice Paulin. Couverture de Robert Bressy
+Lieutenant X -  série Langelot : Langelot mauvais esprit. Illustré par Robert Bressy.
+Jean-Louis Lignerat - Les Fous du ciel. Illustré par Chica. 1re édition.
+Jack London - Michaël, chien de cirque. Illustré par Pierre Leroy. Traduit par Paul Gruyer et Louis Postif. Réédition remaniée.
+Suzanne Pairault - série Jeunes Filles en blanc : Le Poids d'un secret. Illustré par Philippe Daure.
+Suzanne Pairault - série Jeunes Filles en blanc : Le Fantôme de Ligeac. Illustré par Philippe Daure.
+Caroline Quine - série Alice : Alice et le Chandelier. Illustré par Jean-Louis Mercier, traduit par Hélène Commin.
+Caroline Quine - série Alice : Alice et les Marionnettes. Illustré par Jean Sidobre, traduit par Anne Joba.
+Caroline Quine - série Alice : Alice et le Diadème. Illustré par Albert Chazelle, traduit par Anne Joba.
+Caroline Quine - série Alice : Quand Alice rencontre Alice. Illustré par Guy Maynard, traduit par Anne Joba.
+Caroline Quine - série Alice : Alice et le Clavecin. Illustré par Albert Chazelle, traduit par Anne Joba.
+Caroline Quine - série Alice : Alice et l'Esprit frappeur. Illustré par Albert Chazelle, traduit par Anne Joba.
+Caroline Quine - série Alice : Alice en safari. Illustré par Albert Chazelle, traduit par Anne Joba.
+Caroline Quine - série Une enquête des sœurs Parker : Le Volcan endormi. Illustré par Philippe Daure, traduit par Claude Voilier.
+Sand, George George Sand - La Mare au diable. Illustré par Paul Durand. Réédition remaniée.
+Eric Speed - série Frank et Dave les rois du volant : Victoire en Formule V. Illustré par Jean-François Gigot, traduit par Philippe Rouard. 1re édition.
+Mickey Spillane - Le Jour où la mer disparut. Illustré par Sophie Segalen, traduit par Gabrielle Domengeaux. 1re édition.
+Verne, Jules Jules Verne - Michel Strogoff. Illustré par René Georges-Gautier. Réédition remaniée.
+Jules Verne - Vingt mille lieues sous les mers. Illustré par  Alphonse de Neuville et Édouard Riou. Réédition remaniée.
+Henry Williamson - Salar le saumon. Traduit par Jean Muray. Illustré par Jean-Louis Henriot. 1re édition.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>3e série : 1974 à 1982 (logo Hachette carré)</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Max Artis - Traquenard en Nouvelle-Guinée. Illustrations d'Angel Arias Crespo. 1re édition.
+Cécile Aubry - Belle et Sébastien : Séverine : la rencontre. Photographies de Jacky Berrueta.
+Auteurs en herbe, Les jeunes écrivent pour les jeunes : Le Triomphe des animaux. Illustré par Jean-Louis Henriot
+Georges Bayard - série Michel Thérais : Michel en plongée. Illustré par Philippe Daure.
+Georges Bayard - série Michel Thérais : Michel et les Castors du Rhône. Illustré par Philippe Daure.
+Georges Bayard - série Michel Thérais : Michel et le Trésor perdu. Illustré par Philippe Daure.
+Georges Bayard - série Michel Thérais : Michel chez les trotteurs. Illustré par Philippe Daure.
+Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et les Agents secrets. Illustré par Albert Chazelle.Réédition remaniée.
+Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et le Piano à queue. Illustré par Albert Chazelle. Réédition remaniée.
+Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et la Bouteille à la mer. Illustré par Robert Bressy. Réédition remaniée.
+Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et l'Émetteur pirate. Illustré par Albert Chazelle. Réédition remaniée.
+Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et l’homme au gant. Illustré par Albert Chazelle. Réédition remaniée.
+Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et l'Avion clandestin. Illustré par Robert Bressy. Réédition remaniée.
+Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et les Pirates du rail. Illustré par Albert Chazelle. Réédition remaniée.
+Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons au Tour de France. Illustré par Robert Bressy. Réédition remaniée.
+Anthony Buckeridge - série Bennett : Faites confiance à Bennett !. Illustré par Daniel Billon.
+Colin Dann - Les Animaux du bois de Quat'Sous. Traduit par Jean Muray. Illustré par Jean-Louis Henriot. 1re édition.
+Alphonse Daudet - Histoire d'un enfant. Adaptation de P. J. Stahl. Illustré par Cristobal. Réédition remaniée (nouveau dessin de couverture, nouvelle présentation de la B. Verte)
+Philippe Ébly - série Les Évadés du temps : Un frère au fond des siècles. Illustré par Yvon Le Gall.
+Walter Farley - série L'Étalon noir : Le Retour de l'étalon noir. Illustré par J.-P. Ariel, texte français de Frédéric Certonciny.
+Walter Farley - série L'Étalon noir : Sur les traces de l'étalon noir. Illustré par Raoul Auger, traduction de Jean Muray.
+Walter Farley - série L'Étalon noir : La Révolte de l'étalon noir. Illustré par Raoul Auger, texte français de Jean Muray.
+Walter Farley - série L'Étalon noir : Le Courage de l'étalon noir. Illustré par François Batet, traduit par Jean Muray.
+Walter Farley - série L'Étalon noir : Le Prestige de l'étalon noir. Illustré par François Batet, texte français de Jean Muray.
+Marc Flament - série Fils de la flibuste : L'Île des boucaniers perdus. Illustré par François Dermaut. 1re édition.
+Marc Flament - série Il était une fois dans l'Ouest : Cheval-Tonnerre et les chercheurs d'or. Illustré par François Dermaut. 1re édition.
+Michael Hardcastle - série Allan Blackpool : Allan Blackpool crève les filets. Traduit par Philippe Rouard, illustré par Yves Beaujard. 1re édition.
+Alfred Hitchcock - série Les Trois Jeunes Détectives : Le Miroir qui glaçait. Illustré par Françoise Pichard, traduction de Claude Voilier.
+Lieutenant X - série Langelot : Langelot contre la marée noire. Illustré par Robert Bressy.
+Lieutenant X - série Larry J. Bash : Comment j'ai déterré un témoin capital. Illustré par Robert Bressy. Traduit de l'américain par Gil Hérel.
+Jack London - Croc-Blanc. Traduit par  Paul Gruyer, Louis Postif. Illustré par Françoise Boudignon. Réédition remaniée (Réimpression de la nouvelle couverture).
+Christian Piscaglia - 300.000 tonnes de brut pour Rotterdam. Illustré par Willy Vassaux. 1re édition.
+Caroline Quine - série Alice :Alice détective. Traduit par Hélène Commin. Illustré par Jean Sidobre. Réédition remaniée.
+Caroline Quine - série Alice : Alice au bal masqué. Illustré par Jean-Louis Mercier, traduit par Hélène Commin.
+Caroline Quine - série Alice : Alice et le Dragon de feu. Illustré par Albert Chazelle, traduit par Anne Joba.
+Caroline Quine - série Alice : Alice et la Fusée spatiale. Illustré par Jean-Louis Mercier, traduit par Anne Joba.
+Caroline Quine - série Alice : Alice et l'Avion fantôme. Illustré par Jean Sidobre, traduit par Anne Joba.
+Eric Speed - série Frank et Dave les rois du volant : Deux vainqueurs au Mans. Illustré par Édouard Guénégaud, traduit par Philippe Rouard. 1re édition.
+Jules Verne - Cinq semaines en ballon. Illustré par Henri Dimpre.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>3e série : 1974 à 1982 (logo Hachette carré)</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Georges Bayard - série Michel Thérais : Les Étranges Vacances de Michel. Illustré par Philippe Daure.
+Georges Bayard - série Michel Thérais : Michel et la falaise mystérieuse. Illustré par Philippe Ledoux.
+Georges Bayard - série Cécile : Cécile et la villa du prince. Illustré par Annie-Claude Martin.
+Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et l'âne vert. Illustré par Albert Chazelle. Réédition remaniée.
+Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et la Pile atomique. Illustré par Albert Chazelle. Réédition remaniée.
+Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et l'œil d'acier. Illustré par Maurice Paulin. Réédition remaniée.
+Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et la bouteille à la mer. Illustré par Robert Bressy. Réédition remaniée.
+Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons à la tour Eiffel. Illustré par Maurice Paulin. Réédition remaniée.
+Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons en croisière. Illustré par Maurice Paulin. Réédition remaniée.
+Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et la Princesse noire. Illustré par Maurice Paulin. Réédition remaniée.
+Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et les bébés phoques. Illustré par Robert Bressy. Réédition remaniée.
+Anthony Buckeridge - série Bennett : Bennett en vacances. Illustré par Daniel Billon, texte d'Olivier Séchan.
+Edward Bulwer-Lytton - Les Derniers Jours de Pompéi. Illustré par François Batet, traduit sous la direction de P. Lorain.
+Brian C. Daley - Walt Disney présente : Tron. Traduit par Philippe Rouard.
+Philippe Ébly - série Les Conquérants de l'impossible : Celui qui revenait de loin. Illustré par Yvon Le Gall.
+Philippe Ébly - série Les Conquérants de l'impossible : Et les martiens invitèrent les hommes. Illustré par Yvon Le Gall.
+Philippe Ébly - série Les Conquérants de l'impossible : L'Île surgie de la mer. Illustré par Yvon Le Gall.
+Philippe Ébly - série Les Conquérants de l'impossible : Le Matin des dinosaures. Illustré par Yvon Le Gall pour les illustrations noir et blanc, par Angel Arias Crespo pour la couverture et les illustrations couleurs.
+Lieutenant X - série Larry J. Bash : Comment j'ai volé un Picasso. Illustré par Robert Bressy. Traduit de l'américain par Gil Hérel.
+Jack London - Croc-Blanc. Texte français de Paul Gruyer et Louis Postif. Illustré par Françoise Boudignon. Réédition remaniée (réimpression de la nouvelle couverture)
+Caroline Quine - série série Alice : Alice et le Dragon de feu. Illustré par Albert Chazelle, traduit par Anne Joba.
+Caroline Quine - série série Alice : Alice et les Chats persans. Illustré par Albert Chazelle, traduit par Anne Joba.
+Caroline Quine - série série Alice : Alice au camp des biches. Illustré par Jean-Louis Mercier, traduit par Hélène Commin.
+Olivier Séchan - série Les Six Compagnons : Les Six Compagnons et les agneaux de l'Apocalypse. Illustré par Robert Bressy. 1re édition.
+Bertrand Solet - Les Pionniers de l'Île-Franche. Illustré par Inconnu. 1re édition.
+Twain, Mark Mark Twain - Les Aventures de Tom Sawyer. Traduit par Pierre-François Caillé. Illustrateur inconnu. Réédition remaniée.
+Henri Vernes - série Bob Morane : La Vapeur du passé. Illustré par Claude Gohérel.
+Henri Vernes - série Bob Morane : Menace sous la mer. Illustré par Claude Gohérel.
+Henri Vernes - série Bob Morane : La Vallée infernale. Illustré par Claude Gohérel.
+Henri Vernes - série Bob Morane : L'Œil du samourai. Illustré par Claude Gohérel.
+Henri Vernes - série Bob Morane : Commando épouvante. Illustré par Claude Gohérel.
+Henri Vernes - série Bob Morane : Le Dragon des Fenstone. Illustré par Claude Gohérel.
+Henry Winterfeld - L'Affaire Caïus. Illustré par Paul Durand, traduit de l'allemand par Olivier Séchan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>4e série : 1983 à 1987 (les dos hachurés)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Un nouveau format cartonné est créé : les volumes sont plus étroits, le design change. Cette nouvelle série est dite "série hachurée" en raison des stries blanches en diagonale qui se trouvent sur le dos. Il n'a plus de numérotation.
-1983
-Bayard, Georges Georges Bayard - série Michel : Les Étranges Vacances de Michel. Illustré par Philippe Daure. Nlle édition[100],[23].
-Georges Bayard - série Michel Thérais : Michel fait du cinéma. Illustré par Philippe Daure. Nlle édition[100],[23].
-Bayard, Georges Georges Bayard - série Michel Thérais : Michel et le brocanteur. Illustré par Philippe Daure. Nlle édition[100],[23].
-Georges Bayard - série Michel Thérais : Michel poursuit des ombres. Illustré par Philippe Daure. Nlle édition[100],[23].
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un nouveau format cartonné est créé : les volumes sont plus étroits, le design change. Cette nouvelle série est dite "série hachurée" en raison des stries blanches en diagonale qui se trouvent sur le dos. Il n'a plus de numérotation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>4e série : 1983 à 1987 (les dos hachurés)</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Bayard, Georges Georges Bayard - série Michel : Les Étranges Vacances de Michel. Illustré par Philippe Daure. Nlle édition,.
+Georges Bayard - série Michel Thérais : Michel fait du cinéma. Illustré par Philippe Daure. Nlle édition,.
+Bayard, Georges Georges Bayard - série Michel Thérais : Michel et le brocanteur. Illustré par Philippe Daure. Nlle édition,.
+Georges Bayard - série Michel Thérais : Michel poursuit des ombres. Illustré par Philippe Daure. Nlle édition,.
 Georges Bayard - série Michel Thérais : Michel aux Antilles. Illustré par Philippe Daure.
-Bayard, Georges Georges Bayard - série Michel Thérais : Michel et les routiers. Illustré par Philippe Daure. Nlle édition[100],[23].
-Bayard, Georges Georges Bayard - série Michel Thérais : Michel maître à bord. Illustré par Philippe Daure. Nlle édition[100],[23].
-Georges Bayard - série Michel Thérais : Michel à Rome. Illustré par Philippe Daure. Nlle édition[100]
+Bayard, Georges Georges Bayard - série Michel Thérais : Michel et les routiers. Illustré par Philippe Daure. Nlle édition,.
+Bayard, Georges Georges Bayard - série Michel Thérais : Michel maître à bord. Illustré par Philippe Daure. Nlle édition,.
+Georges Bayard - série Michel Thérais : Michel à Rome. Illustré par Philippe Daure. Nlle édition
 Georges Bayard - série Michel Thérais : Michel et les Maléfices. Illustré par Philippe Daure.
 Georges Bayard - série Michel Thérais : Michel et la Super-maquette. Illustré par Philippe Daure. Avant-propos de Jean Jules-Verne.
 Georges Bayard - série Michel Thérais : Michel à la fontaine du Diable. Illustré par Philippe Daure.
-Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Compagnons de la Croix-Rousse[101]. Illustré par Iconnu. Nlle édition[100],[23].
-Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons au gouffre Marzal. Illustré par Robert Bressy. Nlle édition[100],[23].
+Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Compagnons de la Croix-Rousse. Illustré par Iconnu. Nlle édition,.
+Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons au gouffre Marzal. Illustré par Robert Bressy. Nlle édition,.
 Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et l'Âne vert. Illustré par Albert Chazelle.
-Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et le piano à queue. Illustré par Inconnu. Nlle édition[100],[23].
+Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et le piano à queue. Illustré par Inconnu. Nlle édition,.
 Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et les Agents secrets. Illustré par Albert Chazelle.
-Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et le château maudit. Illustré par Inconnu. Nlle édition[100],[23].
+Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et le château maudit. Illustré par Inconnu. Nlle édition,.
 Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons en croisière. Illustré par Maurice Paulin. Couverture de Nicolas Wintz.
 James Oliver Curwood - Bari, chien-loup. Illustré par Tibor Csernus, traduit par Léon Bocquet.
-Edward Bulwer-Lytton - Les Derniers Jours de Pompéi. Traduit par (Inconnu). Illustré par Angel Arias Crespo. Réédition remaniée[23].
-Dickens, Charles Charles Dickens - Les Aventures de M. Pickwick. Illustré par Jean Reschofsky. Traduit par Paul Lorain. Nlle édition[100],[23].
-Dickens, Charles Charles Dickens - Olivier Twist[33]. Illustré par ? . Traduit par ?. Nlle édition[100],[23].
+Edward Bulwer-Lytton - Les Derniers Jours de Pompéi. Traduit par (Inconnu). Illustré par Angel Arias Crespo. Réédition remaniée.
+Dickens, Charles Charles Dickens - Les Aventures de M. Pickwick. Illustré par Jean Reschofsky. Traduit par Paul Lorain. Nlle édition,.
+Dickens, Charles Charles Dickens - Olivier Twist. Illustré par ? . Traduit par ?. Nlle édition,.
 Philippe Ébly - série Les Conquérants de l'impossible : La Grande Peur de l'an 2117. Illustré par Angel Arias-Crespo.
 Philippe Ébly - série Les Évadés du temps : Chasse au tigre en Corrèze. Illustré par Angel Arias-Crespo.
 Marc Flament - série Fils de la flibuste : Les Derniers flibustiers de la Tortue. Illustré par François Dermaut. 1re édition.
@@ -1328,28 +2338,62 @@
 Jerome K. Jerome - Trois hommes dans un bateau. Illustré par Cristobal, traduit par Philippe Rouart. Réédition remaniée.
 Lieutenant X - série Langelot : Langelot et le Satellite. Illustré par Maurice Paulin. Couverture de Robert Bressy.
 Lieutenant X - série Langelot : Langelot et le général kidnappé. Illustré par Robert Bressy.
-Jack London - Croc-Blanc. Traduit par Daniel Alibert-Kouraguine. Illustré par Yves Beaujard. Nlle édition[100],[23].La 4e de couverture indique : texte intégral.
-Jack London - Bellew la fumée[102]. Traduit par Inconnu. Illustré par Yves Beaujard. Nlle édition[100],[23]
-Caroline Quine - série Alice : Alice et le Fantôme. Illustré par Joseph Sheldon, traduit par Hélène Commin. Nlle édition[100],[23].
-Caroline Quine - série Alice : Alice au camp des biches. Traduit par Anne Joba. Illustré par Joseph Sheldon. Nlle édition[100],[23].
+Jack London - Croc-Blanc. Traduit par Daniel Alibert-Kouraguine. Illustré par Yves Beaujard. Nlle édition,.La 4e de couverture indique : texte intégral.
+Jack London - Bellew la fumée. Traduit par Inconnu. Illustré par Yves Beaujard. Nlle édition,
+Caroline Quine - série Alice : Alice et le Fantôme. Illustré par Joseph Sheldon, traduit par Hélène Commin. Nlle édition,.
+Caroline Quine - série Alice : Alice au camp des biches. Traduit par Anne Joba. Illustré par Joseph Sheldon. Nlle édition,.
 Caroline Quine - série Alice : Alice et la Statue qui parle. Illustré par Albert Chazelle, traduit par Anne Joba.
 Caroline Quine - série Alice : Alice en Écosse. Illustré par Albert Chazelle, traduit par Anne Joba. Couverture de Philippe Daure.
-Caroline Quine - série Alice : Alice et le Médaillon d'or. Illustré par Jean-Louis Mercier et Jean Sidobre, traduit par Hélène Commin. Nlle édition[100],[23].
+Caroline Quine - série Alice : Alice et le Médaillon d'or. Illustré par Jean-Louis Mercier et Jean Sidobre, traduit par Hélène Commin. Nlle édition,.
 Caroline Quine - série Alice : Alice et les Contrebandiers. Illustré par Jean-Louis Mercier, traduit par Anne Joba.
-Sand, George George Sand - La Mare au diable. Illustré par (Inconnu). Nlle édition[100],[23].
-Sand, George George Sand - La Petite Fadette. Illustré par Jean-Louis Henriot. Nlle édition[100].
-Walter Scott - Ivanhoé. Illustré par Françoise Boudignon, traduit par Armand Rio. Nlle édition[100].
+Sand, George George Sand - La Mare au diable. Illustré par (Inconnu). Nlle édition,.
+Sand, George George Sand - La Petite Fadette. Illustré par Jean-Louis Henriot. Nlle édition.
+Walter Scott - Ivanhoé. Illustré par Françoise Boudignon, traduit par Armand Rio. Nlle édition.
 Olivier Séchan - série Les Six Compagnons : Les Six Compagnons à l'Étang de Berre. 1re édition.
-Stevenson, Robert Louis Robert Louis Stevenson - L'Île au trésor. Illustré par Jean Reschofsky, traduit par (Inconnu). Nlle édition[100],[103].
-Twain, Mark Mark Twain - Les Aventures de Tom Sawyer[99]. Traduit par Pierre-François Caillé. Illustrateur inconnu. Nlle édition[100].
-Jules Verne - L'Île mystérieuse. Illustré par Yves Beaujard. Nlle édition[100]
-Verne, Jules Jules Verne - Le Tour du monde en quatre-vingts jours. Illustré par Carl De Parcevaux et Albert Brenet. Nlle édition[100].
+Stevenson, Robert Louis Robert Louis Stevenson - L'Île au trésor. Illustré par Jean Reschofsky, traduit par (Inconnu). Nlle édition,.
+Twain, Mark Mark Twain - Les Aventures de Tom Sawyer. Traduit par Pierre-François Caillé. Illustrateur inconnu. Nlle édition.
+Jules Verne - L'Île mystérieuse. Illustré par Yves Beaujard. Nlle édition
+Verne, Jules Jules Verne - Le Tour du monde en quatre-vingts jours. Illustré par Carl De Parcevaux et Albert Brenet. Nlle édition.
 Henri Vernes - série Bob Morane : La Vallée infernale. Illustré par Claude Gohérel.
-Winterfeld, Henry Henry Winterfeld - L'Affaire Caïus. Traduit par Olivier Séchan. Illustré par Paul Durand. Nlle édition[100]
-1984
-Alcott, Louisa May Louisa May Alcott - Les Quatre Filles du docteur March. Illustré par Agnès Molnar, traduit par Anne Joba. Nlle édition[100],[23],[80].
+Winterfeld, Henry Henry Winterfeld - L'Affaire Caïus. Traduit par Olivier Séchan. Illustré par Paul Durand. Nlle édition</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>4e série : 1983 à 1987 (les dos hachurés)</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Alcott, Louisa May Louisa May Alcott - Les Quatre Filles du docteur March. Illustré par Agnès Molnar, traduit par Anne Joba. Nlle édition.
 John Barrow - Les Mutins du Bounty. Illustré par Michel Faure, traduction de Philippe Rouard.
-Georges Bayard - série Michel Thérais : Michel au val d'enfer. Illustré par Philippe Daure. Nlle édition[100]
+Georges Bayard - série Michel Thérais : Michel au val d'enfer. Illustré par Philippe Daure. Nlle édition
 Georges Bayard - série Michel Thérais : Michel connaît la musique. Illustré par Philippe Daure.
 Georges Bayard - série Michel Thérais : Michel et les Casseurs. Illustré par Philippe Daure.
 Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons à la tour Eiffel. Illustré par Maurice Paulin.
@@ -1357,317 +2401,1005 @@
 Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons devant les caméras. Illustré par Robert Bressy.
 Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et la Princesse noire. Illustré par Robert Bressy.
 Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et le Carré magique. Illustré par Robert Bressy, raconté par Olivier Séchan.
-Cooper, James Fenimore James Fenimore Cooper : Le Dernier des Mohicans. Illustré par Yves Beaujard. Nlle édition[100].
-James Oliver Curwood - Bari, chien-loup. Illustré par Tibor Csernus. Traduit par Léon Bocquet. Nlle édition[100]
-Daudet, Alphonse Alphonse Daudet : Contes choisis. Illustré par Michèle Delagoutte-Forest. Nlle édition[100],[23]
+Cooper, James Fenimore James Fenimore Cooper : Le Dernier des Mohicans. Illustré par Yves Beaujard. Nlle édition.
+James Oliver Curwood - Bari, chien-loup. Illustré par Tibor Csernus. Traduit par Léon Bocquet. Nlle édition
+Daudet, Alphonse Alphonse Daudet : Contes choisis. Illustré par Michèle Delagoutte-Forest. Nlle édition,
 Pierre Dautun - série Les Six Compagnons : Les Six Compagnons hors-la-loi. 1re édition.
 Franklin W. Dixon et Caroline Quine - Les Hardy Boys et Alice Roy : Alice et les Hardy Boys super détectives. Illustré par Yves Beaujard, traduit par France-Marie Watkins.
-Philippe Ébly - série Les Conquérants de l'impossible : Celui qui revenait de loin. Couverture d'Angel Arias Crespo. Illustrations in-texte d'Yvon Le Gall. Réédition remaniée[23].
+Philippe Ébly - série Les Conquérants de l'impossible : Celui qui revenait de loin. Couverture d'Angel Arias Crespo. Illustrations in-texte d'Yvon Le Gall. Réédition remaniée.
 Frances K. Judd - série Vicky : Vicky entre dans la danse. Illustré par Monique Gorde, traduit par Marie-Josée Lamorlette.
 Lieutenant X - série Langelot : Langelot et le Sous-Marin jaune. Illustré par Robert Bressy.
-Jack London - Croc-Blanc. Illustré par Jean-Paul Colbus. Traducteur inconnu. Illustrateur inconnu. Nlle édition[100],[23].
+Jack London - Croc-Blanc. Illustré par Jean-Paul Colbus. Traducteur inconnu. Illustrateur inconnu. Nlle édition,.
 Jack London - La Fièvre de l'or. Illustré par Jean-Paul Colbus. Traducteur inconnu. Réédition remaniée.
-Caroline Quine - série Alice :Alice détective. Traduit par Hélène Commin. Illustré par Jean Sidobre. Nlle édition[100],[23].
-Caroline Quine - série Alice : Alice au camp des biches. Traduit par Anne Joba. Illustré par Jean Sidobre. Réédition remaniée[23].
-Caroline Quine - série Alice : Alice et le Chandelier. Illustré par Jean Sidobre, traduit par Hélène Commin. Nlle édition[100],[23].
+Caroline Quine - série Alice :Alice détective. Traduit par Hélène Commin. Illustré par Jean Sidobre. Nlle édition,.
+Caroline Quine - série Alice : Alice au camp des biches. Traduit par Anne Joba. Illustré par Jean Sidobre. Réédition remaniée.
+Caroline Quine - série Alice : Alice et le Chandelier. Illustré par Jean Sidobre, traduit par Hélène Commin. Nlle édition,.
 Caroline Quine - série Alice : Alice à la réserve des oiseaux. Illustré par Jean-Louis Mercier, traduit par Anne Joba, couverture de Jean Sidobre.
 Caroline Quine - série Alice : Alice et la Rivière souterraine. Illustré par Daniel Billon, traduit par Anne Joba, couverture de Jean Sidobre.
 Caroline Quine - série Alice : Alice et le Vase de Chine. Illustré par Albert Chazelle, traduit par Anne Joba, couverture de Jean Sidobre.
 Caroline Quine - série Alice : Alice et les Faux-monnayeurs. Illustré par Albert Chazelle, traduit par Anne Joba, couverture de Jean Sidobre.
 Caroline Quine - série Une enquête des sœurs Parker : Le Secret de la chambre close. Illustré par Philippe Daure, traduit par Suzanne Pairault.
 Olivier Séchan - série Les Six Compagnons : Les Six Compagnons et le Carré magique. 1re édition.
-Stevenson, Robert Louis Robert Louis Stevenson - L'Île au trésor. Illustré par Annie-Claude Martin, traduit par André Laurie. Réédition remaniée[23].
-Jules Verne - Voyage au centre de la Terre. Illustré par Pierre Dehay. Nlle édition[100]
-Henri Vernes - série Bob Morane : L'Ombre jaune. Illustré par Coria.
-1985
-Georges Bayard - série Michel Thérais : Michel et la Preuve par sept. Illustré par Philippe Daure.
-Georges Bayard - série Michel Thérais : Michel et la falaise mystérieuse. Illustré par Philippe Daure. Nlle édition[100],[23].
-Bayard, Georges Georges Bayard - série Michel Thérais : Michel fait mouche. Illustré par Philippe Daure. Nlle édition[100],[23].
-Georges Bayard - série Michel Thérais : Michel poursuit des ombres. Illustré par Philippe Daure. Nlle édition[100],[23].
-Bayard, Georges Georges Bayard - série Michel Thérais : Michel et le brocanteur. Illustré par Philippe Daure. Nlle édition[100],[23].
-Georges Bayard - série Michel Thérais : Michel et Monsieur X. Illustré par Philippe Daure. Nlle édition[100],[23].
+Stevenson, Robert Louis Robert Louis Stevenson - L'Île au trésor. Illustré par Annie-Claude Martin, traduit par André Laurie. Réédition remaniée.
+Jules Verne - Voyage au centre de la Terre. Illustré par Pierre Dehay. Nlle édition
+Henri Vernes - série Bob Morane : L'Ombre jaune. Illustré par Coria.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>4e série : 1983 à 1987 (les dos hachurés)</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Georges Bayard - série Michel Thérais : Michel et la Preuve par sept. Illustré par Philippe Daure.
+Georges Bayard - série Michel Thérais : Michel et la falaise mystérieuse. Illustré par Philippe Daure. Nlle édition,.
+Bayard, Georges Georges Bayard - série Michel Thérais : Michel fait mouche. Illustré par Philippe Daure. Nlle édition,.
+Georges Bayard - série Michel Thérais : Michel poursuit des ombres. Illustré par Philippe Daure. Nlle édition,.
+Bayard, Georges Georges Bayard - série Michel Thérais : Michel et le brocanteur. Illustré par Philippe Daure. Nlle édition,.
+Georges Bayard - série Michel Thérais : Michel et Monsieur X. Illustré par Philippe Daure. Nlle édition,.
 Beecher Stowe, Harriet Harriet Beecher Stowe : La Case de l'oncle Tom. Illustré par Michel Faure. Traduction de Louis Énault. Réédition remaniée  (ISBN 2-01-010270-3)
 Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et la bouteille à la mer. Illustré par Robert Bressy.
-Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et l’homme au gant. Illustré par Christian Vicini. Nlle édition[100],[23].
+Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et l’homme au gant. Illustré par Christian Vicini. Nlle édition,.
 Pierre Dautun - série Les Six Compagnons : Les Six Compagnons et le Chasseur de scoops. Illustré par Robert Bressy. 1re édition.
 Pierre Dautun - série Les Six Compagnons : Les Six Compagnons et l'Énigme de la télémagie. Illustré par Robert Bressy. 1re édition.
-Dickens, Charles Charles Dickens - David Copperfield. Illustré par Françoise Boudignon. Traduit par Paul Lorain. Nlle édition[100],[23].
+Dickens, Charles Charles Dickens - David Copperfield. Illustré par Françoise Boudignon. Traduit par Paul Lorain. Nlle édition,.
 Philippe Ébly - série Les Conquérants de l'impossible : La Fin des temps troublés. Illustré par Angel Arias-Crespo.
 Philippe Ébly - série Les Évadés du temps : Le Monstre aux deux têtes. Illustré par Angel Arias-Crespo.
 Walter Farley - série L'Étalon noir : Le Ranch de l'étalon noir. Illustré par J.-P. Ariel, traduit par Jean Muray.
-Farley, Walter Walter Farley - Flamme, Cheval sauvage. Traduit par Jules Bréant. Illustré par J.-P. Ariel. Nlle édition[100],[23].
-Farley, Walter Walter Farley - série Flamme : Flamme et les pur-sang. Traduit par Jean Muray. Illustré par J.-P. Ariel. Nlle édition[100],[23].
+Farley, Walter Walter Farley - Flamme, Cheval sauvage. Traduit par Jules Bréant. Illustré par J.-P. Ariel. Nlle édition,.
+Farley, Walter Walter Farley - série Flamme : Flamme et les pur-sang. Traduit par Jean Muray. Illustré par J.-P. Ariel. Nlle édition,.
 Gautier, Théophile Théophile Gautier - Le Capitaine Fracasse. Illustré par Inconnu. Réédition remaniée.
-Rudyard Kipling - Capitaines courageux. Traduit par Louis Fabulet, Charles Fountaine-Walker. Illustré par Jean-Paul Colbus. Nlle édition[100],[23].
+Rudyard Kipling - Capitaines courageux. Traduit par Louis Fabulet, Charles Fountaine-Walker. Illustré par Jean-Paul Colbus. Nlle édition,.
 Laurencie - Justine : Justine au rendez-vous de Victor Hugo. Illustré par Marie-Marthe Collin.
 Jack London - Croc-Blanc. Traduit en français par Daniel Alibert-Kouraguine . Illustré par Yves Beaujard. Réédition remaniée.
 Suzanne Pairault - série Jeunes Filles en blanc : La Grande Épreuve de Florence. Illustré par Philippe Daure.
 Caroline Quine - série Alice : Alice chez les Incas. Illustré par Albert Chazelle, traduit par Anne Joba, couverture de Philippe Daure.
-Caroline Quine - série Alice : Alice et les Diamants. Illustré par Philippe Daure, traduit par Anne Joba. Nlle édition[100],[23]
-Caroline Quine - série Alice : Alice écuyère. Illustré par Albert Chazelle, Philippe Daure (couverture). Traduit par Hélène Commin. Nlle édition[100].
-Caroline Quine - série Alice : Alice et le Fantôme. Couverture de Philippe Daure, illustrations intérieures de Jean-Louis Mercier. Traduit par Hélène Commin. Réédition remaniée[23].
-Sienkiewicz, Henryk Henryk Sienkiewicz - Quo vadis ?. Illustré par Angel Arias Crespo, traduit du polonais par B. Kozakiewicz et J-L de Janasz. Nlle édition[100],[23]
+Caroline Quine - série Alice : Alice et les Diamants. Illustré par Philippe Daure, traduit par Anne Joba. Nlle édition,
+Caroline Quine - série Alice : Alice écuyère. Illustré par Albert Chazelle, Philippe Daure (couverture). Traduit par Hélène Commin. Nlle édition.
+Caroline Quine - série Alice : Alice et le Fantôme. Couverture de Philippe Daure, illustrations intérieures de Jean-Louis Mercier. Traduit par Hélène Commin. Réédition remaniée.
+Sienkiewicz, Henryk Henryk Sienkiewicz - Quo vadis ?. Illustré par Angel Arias Crespo, traduit du polonais par B. Kozakiewicz et J-L de Janasz. Nlle édition,
 Mark Twain - Les Aventures de Tom Sawyer. Illustré par Christian Vicini, traduction nouvelle de P.-F Caillé et Y. Dubois-Mauvais. Réédition remaniée.
-Jules Verne - De la Terre à la Lune. Illustré par Jean Sidobre. Nlle édition[100],[23]
-1986
-Cécile Aubry - Belle et Sébastien : Séverine : la rencontre. Illustré par Inconnu.
+Jules Verne - De la Terre à la Lune. Illustré par Jean Sidobre. Nlle édition,</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>4e série : 1983 à 1987 (les dos hachurés)</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Cécile Aubry - Belle et Sébastien : Séverine : la rencontre. Illustré par Inconnu.
 Georges Bayard - série Cécile : Cécile et la Tapisserie volée. Illustré par Annie-Claude Martin.
 Pierre Dautun - série Les Six Compagnons : Les Six Compagnons et la Radio libre. 1re édition.
 Pierre Dautun - série Les Six Compagnons : Les Six Compagnons au Tournoi de la chanson. 1re édition.
 Philippe Ébly - série Les Évadés du temps : Objectif : Nulle part. Illustré par Víctor de la Fuente.
 Suzanne Pairault - série Jeunes Filles en blanc : Mission vers l'inconnu. Illustré par Philippe Daure.
 Lewis Wallace - Ben-Hur. Traduit par Jean Muray. Illustré par Patrice Pellerin.
-Jules Verne - Cinq semaines en ballon. Illustré par Cristobal. Nlle édition[100]
-1987
-Georges Bayard - série Michel Thérais : Michel fait du vol à voile. Illustré par Philippe Daure.
+Jules Verne - Cinq semaines en ballon. Illustré par Cristobal. Nlle édition</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>4e série : 1983 à 1987 (les dos hachurés)</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Georges Bayard - série Michel Thérais : Michel fait du vol à voile. Illustré par Philippe Daure.
 Pierre Dautun - série Les Six Compagnons : Les Six Compagnons et la Fiancée de Kafi. 1re édition.
-André Dhôtel - Le Pays où l'on n'arrive jamais. Illustré par Jean Reschofsky. Nlle édition[100],[23].
+André Dhôtel - Le Pays où l'on n'arrive jamais. Illustré par Jean Reschofsky. Nlle édition,.
 Caroline Quine - série Alice : Alice au Canada. Illustré par Albert Chazelle, traduit par Hélène Commin, couverture de Jean Sidobre.
 Henry Winterfeld - L'Affaire Caïus. Illustré par Paul Durand, traduction d'Olivier Séchan.</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
         <is>
           <t>5e série : 1988 à 1998 (le format de poche)</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>À partir de 1988, Hachette adopte le format de poche souple. Une nouvelle numérotation apparaît.
-1988
-no 1000[104] : Alain-Fournier - Le Grand Meaulnes. Illustrations de Sylvain Nuccio. Nlle édition[105],[23].
-no 211 : Bayard, Georges Georges Bayard - série Michel Thérais : Michel et les routiers. Illustré par Philippe Daure. Nlle édition[105],[23].
-no 214 : Georges Bayard - série Michel Thérais : Michel poursuit des ombres. Illustré par Philippe Daure. Nlle édition[105].
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À partir de 1988, Hachette adopte le format de poche souple. Une nouvelle numérotation apparaît.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>5e série : 1988 à 1998 (le format de poche)</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>no 1000 : Alain-Fournier - Le Grand Meaulnes. Illustrations de Sylvain Nuccio. Nlle édition,.
+no 211 : Bayard, Georges Georges Bayard - série Michel Thérais : Michel et les routiers. Illustré par Philippe Daure. Nlle édition,.
+no 214 : Georges Bayard - série Michel Thérais : Michel poursuit des ombres. Illustré par Philippe Daure. Nlle édition.
 no 164 : Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons au tournoi de la chanson. Illustré par Robert Bressy, raconté par Pierre Dautun.  (ISBN 2-01-013703-5)
 no 169 : Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et la bouteille à la mer. Illustré par Robert Bressy.  (ISBN 2-01-200339-7)
-no 171 : Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et la Pile atomique. Illustré par Christian Vicini. Nlle édition[105],[23].  (ISBN 2-01-014552-6)
-no 177 : Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons - Les Six Compagnons et l'Homme des neiges. Illustré par Christian Vicini. Nlle édition[105].  (ISBN 2-01-014621-2)
-no 544 : Edward Bulwer-Lytton - Les Derniers Jours de Pompéi. Traduit par (Inconnu). Illustré par Angel Arias Crespo. Nlle édition[105].
-no 541 : James Oliver Curwood - Bari, chien-loup. Traduit par Léon Bocquet. Illustré par Jean-Louis Henriot. Nlle édition[105].
-no 540 : Curwood, James Oliver James Oliver Curwood - Le Grizzly. Traduit par Jean d'Agraives et Gil Hérel. Illustré par Víctor de la Fuente. Nlle édition[105],[23].
-no 545 : Defoe, Daniel Daniel Defoe - Robinson Crusoé. Illustré par Yves Beaujard. Traduit par Jacques Brécard. Nlle édition[105].
-Dickens, Charles Charles Dickens - David Copperfield. Illustré par Françoise Boudignon. Traduit par Paul Lorain. Nlle édition[105],[23].
+no 171 : Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et la Pile atomique. Illustré par Christian Vicini. Nlle édition,.  (ISBN 2-01-014552-6)
+no 177 : Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons - Les Six Compagnons et l'Homme des neiges. Illustré par Christian Vicini. Nlle édition.  (ISBN 2-01-014621-2)
+no 544 : Edward Bulwer-Lytton - Les Derniers Jours de Pompéi. Traduit par (Inconnu). Illustré par Angel Arias Crespo. Nlle édition.
+no 541 : James Oliver Curwood - Bari, chien-loup. Traduit par Léon Bocquet. Illustré par Jean-Louis Henriot. Nlle édition.
+no 540 : Curwood, James Oliver James Oliver Curwood - Le Grizzly. Traduit par Jean d'Agraives et Gil Hérel. Illustré par Víctor de la Fuente. Nlle édition,.
+no 545 : Defoe, Daniel Daniel Defoe - Robinson Crusoé. Illustré par Yves Beaujard. Traduit par Jacques Brécard. Nlle édition.
+Dickens, Charles Charles Dickens - David Copperfield. Illustré par Françoise Boudignon. Traduit par Paul Lorain. Nlle édition,.
 Philippe Ébly - série Les Conquérants de l'impossible : 2159, la fin des temps troublés. Illustré par Richard Martens.
 Philippe Ébly - série Les Conquérants de l'impossible : Les Parias de l'an 2187. Illustré par Víctor de la Fuente.
 Philippe Ébly - série Les Conquérants de l'impossible : L'Ordinateur qui semait le désordre. Illustré par Richard Martens.
-no 320 : Farley, Walter Walter Farley - série Flamme : Flamme, Cheval sauvage. Traduit par Jules Bréant. Illustré par Michel Faure. Nlle édition[105],[23].
-no 331 : Farley, Walter Walter Farley - série Flamme : Flamme et les pur-sang. Traduit par Jean Muray. Illustré par J.-P. Ariel. Nlle édition[105],[23].
+no 320 : Farley, Walter Walter Farley - série Flamme : Flamme, Cheval sauvage. Traduit par Jules Bréant. Illustré par Michel Faure. Nlle édition,.
+no 331 : Farley, Walter Walter Farley - série Flamme : Flamme et les pur-sang. Traduit par Jean Muray. Illustré par J.-P. Ariel. Nlle édition,.
 no 546 : Gautier, Théophile Théophile Gautier - Le Capitaine Fracasse. Illustré par Jean-Paul Colbus. Réédition remaniée.
 Maurice Périsset - série Les Six Compagnons : Les Six Compagnons à l'affût. Illustré par Robert Bressy. 1re édition
-no 452 : Caroline Quine - série Alice : Alice et les Trois Clefs. Illustré par Philippe Daure, traduit par Hélène Commin. Nlle édition[105],[23].
-no 449 : Quine, Caroline Caroline Quine - série Alice : Alice et le Carnet vert. Illustré par Philippe Daure, traduit par Anne Joba. Nlle édition[105],[23].
-no 457 : Quine, Caroline Caroline Quine - série Alice : Alice et le Flibustier. Traduit par Anne Joba. Illustré par Jean Sidobre. Nlle édition[105],[23].
+no 452 : Caroline Quine - série Alice : Alice et les Trois Clefs. Illustré par Philippe Daure, traduit par Hélène Commin. Nlle édition,.
+no 449 : Quine, Caroline Caroline Quine - série Alice : Alice et le Carnet vert. Illustré par Philippe Daure, traduit par Anne Joba. Nlle édition,.
+no 457 : Quine, Caroline Caroline Quine - série Alice : Alice et le Flibustier. Traduit par Anne Joba. Illustré par Jean Sidobre. Nlle édition,.
 Sienkiewicz, Henryk Henryk Sienkiewicz - Quo vadis ?. Illustré par Angel Arias Crespo. Traduit par B. Kozakiewicz et J-L de Janasz. Réédition remaniée.
-no 1003 : Robert Louis Stevenson - Dr Jekyll et M. Hyde. Illustré par Inconnu, traduit par Jean Muray et Jean-Claude Lullien. Nlle édition[105].
-no 1002 : Twain, Mark Mark Twain - Les Aventures de Tom Sawyer[99]. Traduit par Pierre-François Caillé. Illustrateur inconnu. Nlle édition[105].
-no 543 : Jules Verne - Cinq semaines en ballon. Illustré par Cristobal. Nlle édition[105],[23].
-no 547 : Winterfeld, Henry Henry Winterfeld - L'Affaire Caïus. Traduit par Olivier Séchan. Illustré par Paul Durand. Nlle édition[105]
-1989
-no 223 : Georges Bayard - série Michel Thérais : Michel et la falaise mystérieuse. Illustré par Philippe Daure. Nlle édition[105],[23].
-no 163 : Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Compagnons de la Croix-Rousse[101]. Illustré par Robert Bressy. Nlle édition[105],[23].  (ISBN 2-01-013585-7)
-no 181 : Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et le château maudit. Illustré par Inconnu. Nlle édition[105].
-no 183 : Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et le Carré magique. Illustré par Robert Bressy, raconté par Olivier Séchan. Nlle édition[105]
-no 190 : Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et la Perruque rouge. Illustré par Robert Bressy. Nlle édition[105],[23].
-no 191 : Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons au gouffre Marzal. Illustré par Robert Bressy. Nlle édition[105]
-no 192 : Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et l’homme au gant. Illustré par Christian Vicini. Nlle édition[105]
-no 189 : Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et le piano à queue. Illustré par Robert Bressy. Nlle édition[105],[23].
-no 459 : Caroline Quine - série Alice : Alice et les Diamants. Illustré par Philippe Daure, traduit par Anne Joba. Nlle édition[105]
-1990
-no 226 : Georges Bayard - série Michel Thérais : Michel et Monsieur X. Illustré par Philippe Daure. Nlle édition[105].
-no 227 : Bayard, Georges Georges Bayard - série Michel Thérais : Michel fait mouche. Illustré par Philippe Daure. Nlle édition[105].
-no 219 : Georges Bayard - série Michel Thérais : Michel à Rome. Illustré par Philippe Daure. Nlle édition[105].
+no 1003 : Robert Louis Stevenson - Dr Jekyll et M. Hyde. Illustré par Inconnu, traduit par Jean Muray et Jean-Claude Lullien. Nlle édition.
+no 1002 : Twain, Mark Mark Twain - Les Aventures de Tom Sawyer. Traduit par Pierre-François Caillé. Illustrateur inconnu. Nlle édition.
+no 543 : Jules Verne - Cinq semaines en ballon. Illustré par Cristobal. Nlle édition,.
+no 547 : Winterfeld, Henry Henry Winterfeld - L'Affaire Caïus. Traduit par Olivier Séchan. Illustré par Paul Durand. Nlle édition</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>5e série : 1988 à 1998 (le format de poche)</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>no 223 : Georges Bayard - série Michel Thérais : Michel et la falaise mystérieuse. Illustré par Philippe Daure. Nlle édition,.
+no 163 : Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Compagnons de la Croix-Rousse. Illustré par Robert Bressy. Nlle édition,.  (ISBN 2-01-013585-7)
+no 181 : Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et le château maudit. Illustré par Inconnu. Nlle édition.
+no 183 : Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et le Carré magique. Illustré par Robert Bressy, raconté par Olivier Séchan. Nlle édition
+no 190 : Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et la Perruque rouge. Illustré par Robert Bressy. Nlle édition,.
+no 191 : Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons au gouffre Marzal. Illustré par Robert Bressy. Nlle édition
+no 192 : Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et l’homme au gant. Illustré par Christian Vicini. Nlle édition
+no 189 : Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et le piano à queue. Illustré par Robert Bressy. Nlle édition,.
+no 459 : Caroline Quine - série Alice : Alice et les Diamants. Illustré par Philippe Daure, traduit par Anne Joba. Nlle édition</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>5e série : 1988 à 1998 (le format de poche)</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>no 226 : Georges Bayard - série Michel Thérais : Michel et Monsieur X. Illustré par Philippe Daure. Nlle édition.
+no 227 : Bayard, Georges Georges Bayard - série Michel Thérais : Michel fait mouche. Illustré par Philippe Daure. Nlle édition.
+no 219 : Georges Bayard - série Michel Thérais : Michel à Rome. Illustré par Philippe Daure. Nlle édition.
 Beecher Stowe, Harriet Harriet Beecher Stowe - La Case de l'oncle Tom. Illustré par Anne Victoire. Traduit par Louis Énault. Réédition remaniée.
 Conrad, Joseph Joseph Conrad - Typhon. Illustré par Romain Slocombe. Traduit par Jean-François Ménard. Réédition remaniée.
-no 474 : Caroline Quine - série Alice : Alice écuyère. Illustré par Albert Chazelle, traduit par Hélène Commin. Couverture de Philippe Daure. Nlle édition[105],[23].
-Jules Verne - De la Terre à la Lune. Illustré par Luc Weissmuller. Réédition remaniée.
-1991
-no 20 : Derek Denton - série Les Aventures de Harry : La Boutique maléfique. Traduit par Jean Esch. Illustré par Thierry Christmann. 1re édition.
+no 474 : Caroline Quine - série Alice : Alice écuyère. Illustré par Albert Chazelle, traduit par Hélène Commin. Couverture de Philippe Daure. Nlle édition,.
+Jules Verne - De la Terre à la Lune. Illustré par Luc Weissmuller. Réédition remaniée.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>5e série : 1988 à 1998 (le format de poche)</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>no 20 : Derek Denton - série Les Aventures de Harry : La Boutique maléfique. Traduit par Jean Esch. Illustré par Thierry Christmann. 1re édition.
 no 21 : Derek Denton - série Les Aventures de Harry : Un jeu très dangereux. Traduit par Jean Esch. Illustré par Thierry Christmann. 1re édition.
 no 22 : Derek Denton - série Les Aventures de Harry : Le Village sous les dunes. Traduit par Jean Esch. Illustré par Thierry Christmann. 1re édition.
-no 191 : Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et l'Émetteur pirate. Illustré par Robert Bressy. Nlle édition[105].  (ISBN 2-01-017796-7)
-no 720 : Alberto Manzi - Le Village des fous[106]. Traduit par Anne Bernard. Illustré par Joëlle Jolivet. Réédition remaniée[23].
-1992
-no 229 : Bayard, Georges Georges Bayard - série Michel Thérais : Michel mène l'enquête. Illustré par Philippe Daure. Nlle édition[105],[107]
-no 555 : Leblanc, Maurice Maurice Leblanc - série Les Aventures d'Arsène Lupin - L'Aiguille creuse. Illustrations de Matthieu Blanchin. Nlle édition[105],[23].
+no 191 : Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et l'Émetteur pirate. Illustré par Robert Bressy. Nlle édition.  (ISBN 2-01-017796-7)
+no 720 : Alberto Manzi - Le Village des fous. Traduit par Anne Bernard. Illustré par Joëlle Jolivet. Réédition remaniée.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>5e série : 1988 à 1998 (le format de poche)</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>no 229 : Bayard, Georges Georges Bayard - série Michel Thérais : Michel mène l'enquête. Illustré par Philippe Daure. Nlle édition,
+no 555 : Leblanc, Maurice Maurice Leblanc - série Les Aventures d'Arsène Lupin - L'Aiguille creuse. Illustrations de Matthieu Blanchin. Nlle édition,.
 no 559 : Maurice Leblanc - série Arsène Lupin : Arsène Lupin, Gentleman cambrioleur. Illustré par Matthieu Blanchin. 1re édition.
 Jack London - L'Appel sauvage. Illustré par Miles Hyman. Traduit par Jean Muray. Réédition remaniée.
-no 457 : Quine, Caroline Caroline Quine - série Alice : Alice et le Flibustier. Traduit par Anne Joba. Illustré par Philippe Daure, Jean Sidobre. Réédition remaniée[23].
+no 457 : Quine, Caroline Caroline Quine - série Alice : Alice et le Flibustier. Traduit par Anne Joba. Illustré par Philippe Daure, Jean Sidobre. Réédition remaniée.
 Scott, Walter Walter Scott - Ivanhoé. Illustré par Robert Diet, texte français d'Armand Rio. Réédition remaniée.
-Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et l'Homme des neiges. Illustré par Inconnu. Réédition remaniée[23].  (ISBN 2-01-016869-0)
-1993
-Philippe Ébly - série Les Conquérants de l'impossible : Celui qui revenait de loin. Illustré par Erik Juszezak. Réédition remaniée (texte révisé).
+Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et l'Homme des neiges. Illustré par Inconnu. Réédition remaniée.  (ISBN 2-01-016869-0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>5e série : 1988 à 1998 (le format de poche)</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Philippe Ébly - série Les Conquérants de l'impossible : Celui qui revenait de loin. Illustré par Erik Juszezak. Réédition remaniée (texte révisé).
 no 560 : Maurice Leblanc - série Arsène Lupin : 813 : la double vie d'Arsène Lupin. Illustré par Matthieu Blanchin. 1re édition.
-no 562 : Maurice Leblanc - série Arsène Lupin : La Barre-y-va. Illustré par Matthieu Blanchin. Nlle édition[105],[23].
-no 563 : Maurice Leblanc - série Les Aventures d'Arsène Lupin : Le Bouchon de cristal. Illustré par Matthieu Blanchin. Nlle édition[105],[23].
-no 556 : Maurice Leblanc - série Les Aventures d'Arsène Lupin : Arsène Lupin contre Herlock Sholmès. Illustré par Matthieu Blanchin. Nlle édition[105],[23].
-William McCay - série Indiana Jones Jr : Indiana Jones Jr et les Chevaliers fantômes. Illustré par Erik Juszezak. Traduit par Valentin Dechemin.
-1994
-Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et l’homme au gant. Illustré par Robert Bressy. Réédition remaniée[23].
-Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et la Pile atomique. Illustré par Inconnu. Réédition remaniée[23].  (ISBN 2-01-016996-4)
-Agatha Christie - Dix petits nègres. Illustré par (Inconnu), traduit par Gérard de Chergé. Nlle édition[105],[23],[80].
+no 562 : Maurice Leblanc - série Arsène Lupin : La Barre-y-va. Illustré par Matthieu Blanchin. Nlle édition,.
+no 563 : Maurice Leblanc - série Les Aventures d'Arsène Lupin : Le Bouchon de cristal. Illustré par Matthieu Blanchin. Nlle édition,.
+no 556 : Maurice Leblanc - série Les Aventures d'Arsène Lupin : Arsène Lupin contre Herlock Sholmès. Illustré par Matthieu Blanchin. Nlle édition,.
+William McCay - série Indiana Jones Jr : Indiana Jones Jr et les Chevaliers fantômes. Illustré par Erik Juszezak. Traduit par Valentin Dechemin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>5e série : 1988 à 1998 (le format de poche)</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et l’homme au gant. Illustré par Robert Bressy. Réédition remaniée.
+Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et la Pile atomique. Illustré par Inconnu. Réédition remaniée.  (ISBN 2-01-016996-4)
+Agatha Christie - Dix petits nègres. Illustré par (Inconnu), traduit par Gérard de Chergé. Nlle édition.
 James Oliver Curwood - Bari, chien-loup. Texte français de Léon Bocquet. Illustré par Philippe Jozelon. Réédition remaniée.
 Dickens, Charles Charles Dickens - Oliver Twist. Illustré par Jean-Claude Götting. Traduit de l'anglais par Jean Muray. Réédition remaniée.
-no 939 : James Oliver Curwood - Bari, chien-loup. Traduit par Léon Bocquet. Illustré par Philippe Jozelon. Réédition remaniée[23].
+no 939 : James Oliver Curwood - Bari, chien-loup. Traduit par Léon Bocquet. Illustré par Philippe Jozelon. Réédition remaniée.
 Féval, Paul Paul Féval - Le Loup blanc. Illustré par Christophe Rouil. Édition remaniée.
-no 558 : Maurice Leblanc - série Arsène Lupin : Les Confidences d'Arsène Lupin. Illustré par Matthieu Blanchin. Nlle édition[105],[23].
+no 558 : Maurice Leblanc - série Arsène Lupin : Les Confidences d'Arsène Lupin. Illustré par Matthieu Blanchin. Nlle édition,.
 no 561 : Maurice Leblanc - série Arsène Lupin : 813 : Les Trois Crimes d'Arsène Lupin. Illustré par Matthieu Blanchin. 1re édition.
 Maurice Périsset - série Les Six Compagnons : Les Six Compagnons et les Caïmans roses. Illustré par Robert Bressy. 1re édition.
 Jules Verne - Cinq semaines en ballon. Illustré par Inconnu. Réédition remaniée.
-no 942 et no 943[14] : Verne, Jules Jules Verne - Michel Strogoff[14]. Illustré par René Georges-Gautier. Nlle édition[105],[23].
-no 940 : Jules Verne - Vingt mille lieues sous les mers. Illustré par Luc Weissmuller. Réédition remaniée.
-1995
-no 234 : Georges Bayard - série Michel Thérais : Michel au val d'enfer. Illustré par Philippe Daure. Nlle édition[105],[23].
-no 748 : Mary Mapes Dodge - Les Patins d'argent. Texte français de Pierre-Jules Hetzel. Illustré par Jean-Paul Colbus. Nlle édition[105],[23],[108].
-no 484 : Quine, Caroline Caroline Quine - série Alice : Alice et le Pickpocket. Traduit par Hélène Commin, Illustré par Philippe Daure. Nlle édition[105],[23].
-1996
-no 237 : Bayard, Georges Georges Bayard - série Michel - Michel au refuge interdit. Illustré par Philippe Daure. Nlle édition[105],[23].
+no 942 et no 943 : Verne, Jules Jules Verne - Michel Strogoff. Illustré par René Georges-Gautier. Nlle édition,.
+no 940 : Jules Verne - Vingt mille lieues sous les mers. Illustré par Luc Weissmuller. Réédition remaniée.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>5e série : 1988 à 1998 (le format de poche)</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>no 234 : Georges Bayard - série Michel Thérais : Michel au val d'enfer. Illustré par Philippe Daure. Nlle édition,.
+no 748 : Mary Mapes Dodge - Les Patins d'argent. Texte français de Pierre-Jules Hetzel. Illustré par Jean-Paul Colbus. Nlle édition.
+no 484 : Quine, Caroline Caroline Quine - série Alice : Alice et le Pickpocket. Traduit par Hélène Commin, Illustré par Philippe Daure. Nlle édition,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>5e série : 1988 à 1998 (le format de poche)</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>no 237 : Bayard, Georges Georges Bayard - série Michel - Michel au refuge interdit. Illustré par Philippe Daure. Nlle édition,.
 Philippe Ébly - série Les Conquérants de l'impossible : Mission sans retour. Illustré par Erik Juszezak.
-no 949 : Sid Fleischman - Jack, chercheur d'or. Illustré par Dominique Boll, traduit par Olivier Séchan. Nlle édition[105],[23].
+no 949 : Sid Fleischman - Jack, chercheur d'or. Illustré par Dominique Boll, traduit par Olivier Séchan. Nlle édition,.
 Lieutenant X - série Langelot : Langelot donne l'assaut. Illustré par Pierre-Olivier Vincent.
-Lieutenant X - série Langelot : Langelot et l'Île déserte. Illustré par Pierre-Olivier Vincent.
-1997
-Bayard, Georges Georges Bayard - série Michel : Michel et la Soucoupe flottante. Illustré par Philippe Daure. Nlle édition[105],[23].
+Lieutenant X - série Langelot : Langelot et l'Île déserte. Illustré par Pierre-Olivier Vincent.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>5e série : 1988 à 1998 (le format de poche)</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Bayard, Georges Georges Bayard - série Michel : Michel et la Soucoupe flottante. Illustré par Philippe Daure. Nlle édition,.
 Lieutenant X - série Langelot : Langelot et les Espions.
 Richard Beugné - série Indiana Jones Jr : Indiana Jones Jr et l'ampoule radioactive. Illustré par Erik Juszezak. 190 p. (Bibliothèque verte ; 596).  (ISBN 2-01-209671-9)
 Richard Beugné - série Indiana Jones Jr : Indiana Jones Jr et la météorite sacrée. Illustré par Erik Juszezak. 189 p. (Bibliothèque verte ; 598).  (ISBN 2-01-209670-0)
-Quine, Caroline Caroline Quine - série Alice : Alice et le Carnet vert. Illustré par Philippe Daure, traduit par Anne Joba. Réédition remaniée[23].
+Quine, Caroline Caroline Quine - série Alice : Alice et le Carnet vert. Illustré par Philippe Daure, traduit par Anne Joba. Réédition remaniée.
 Richard Beugné - série Indiana Jones Jr : Indiana Jones Jr et l'enfant lama. Illustré par Erik Juszezak. 158 p. (Bibliothèque verte ; 600)  (ISBN 2-01-209803-7)</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
         <is>
           <t>6e série : 2000 à présent (format hybride en relief)</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Un format hybride est créé : mi-souple, mi-cartonné. L'aspect et la taille des volumes changent également.
-2000
-no 163 : Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons de la Croix-Rousse[101]. Illustré par André Taymans. Nlle édition[109],[23].  (ISBN 2-01-200442-3)
-no 166 : Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et le Cigare volant. Illustré par André Taymans. Nlle édition[109],[23]
-no 169 : Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et la Bouteille à la mer. Illustré par André Taymans. Nlle édition[109],[23]
-no 172 : Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons à Scotland Yard. Illustré par André Taymans. Nlle édition[109],[23]
-no 179 : Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons devant les caméras. Illustré par André Taymans. Nlle édition[109],[23]
-no 191 : Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons au gouffre Marzal. Illustré par André Taymans. Nlle édition[109],[23].  (ISBN 2-01-200352-4)
-no 192 Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et l’homme au gant. Illustré par André Taymans. Nlle édition[109],[23].  (ISBN 2-01-200341-9)
-no 195 : Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons se jettent à l'eau. Illustré par André Taymans. Nlle édition[109],[23]
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un format hybride est créé : mi-souple, mi-cartonné. L'aspect et la taille des volumes changent également.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>6e série : 2000 à présent (format hybride en relief)</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>no 163 : Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons de la Croix-Rousse. Illustré par André Taymans. Nlle édition,.  (ISBN 2-01-200442-3)
+no 166 : Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et le Cigare volant. Illustré par André Taymans. Nlle édition,
+no 169 : Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et la Bouteille à la mer. Illustré par André Taymans. Nlle édition,
+no 172 : Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons à Scotland Yard. Illustré par André Taymans. Nlle édition,
+no 179 : Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons devant les caméras. Illustré par André Taymans. Nlle édition,
+no 191 : Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons au gouffre Marzal. Illustré par André Taymans. Nlle édition,.  (ISBN 2-01-200352-4)
+no 192 Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et l’homme au gant. Illustré par André Taymans. Nlle édition,.  (ISBN 2-01-200341-9)
+no 195 : Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons se jettent à l'eau. Illustré par André Taymans. Nlle édition,
 no 198 : Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et les Agents secrets. Illustré par André Taymans.  (ISBN 2-01-200340-0)
-no  : Pierre Dautun - série Les Six Compagnons : Les Six Compagnons hors-la-loi. Illustré par André Taymans. Nlle édition[109],[23]
+no  : Pierre Dautun - série Les Six Compagnons : Les Six Compagnons hors-la-loi. Illustré par André Taymans. Nlle édition,
 no 700 :Jack Dillon - série Alerte ! : Alerte ! L'ouragan. Illustré par Inconnu, traduit par Frédérique Revuz. 1re édition.
 no 701 : Jack Dillon - série Alerte ! : Alerte ! Le tremblement de terre. Illustré par Thierry Ségur, traduit par Frédérique Revuz. 1re édition.
 no 702 : Jack Dillon - série Alerte ! : Alerte ! Le feu de forêt. Illustré par Inconnu, traduit par Frédérique Revuz. 1re édition.
 no 703 : Jack Dillon - série Alerte ! : Alerte ! Tempête en mer. Illustré par Inconnu, traduit par Frédérique Revuz. 1re édition.
 no 704 : Jack Dillon - série Alerte ! : Alerte ! L'éruption volcanique. Illustré par Inconnu, traduit par Frédérique Revuz. 1re édition.
 no 705 : Jack Dillon - série Alerte ! : Alerte ! L'avalanche. Illustré par Inconnu, traduit par Frédérique Revuz. 1re édition.
-no 320 : Farley, Walter Walter Farley - série Flamme : Flamme, Cheval sauvage. Traduit par Jules Bréant. Illustré par Michel Faure. Nlle édition[109],[23].
-no 331 : Farley, Walter Walter Farley - série Flamme : Flamme et les pur-sang. Traduit par Jean Muray. Illustré par Michel Faure. Nlle édition[109],[23].
-no 459 : Caroline Quine - série Alice : Alice et les Diamants. Illustré par Philippe Daure, traduit par Anne Joba. Nlle édition[109],[23].
-2001
-no 170 : Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons au concours hippique. Illustré par André Taymans. Nlle édition[109],[23]
-no 180 : Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et l'Avion clandestin. Illustré par André Taymans. Nlle édition[109],[23].  (ISBN 2-01-201264-7)
-no 181 : Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et le Château maudit. Illustré par André Taymans. Nlle édition[109],[23].  (ISBN 2-01-200348-6)
-no 202 : Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et le Mystère du parc. Illustré par André Taymans. Nlle édition[109],[23]
-no  : Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons dans la Ville rose. Illustré par André Taymans. Nlle édition[109],[23]
-no 185 : Robert Bressy - série Les Six Compagnons : Les Six Compagnons et le Chasseur de scoops. Illustré par André Taymans. Nlle édition[109],[23]
-no 187 : Pierre Dautun - série Les Six Compagnons : Les Six Compagnons et la Radio libre. Illustré par André Taymans. Nlle édition[109],[23]
-no 173 : Maurice Périsset - série Les Six Compagnons : Les Six Compagnons à l'affût. Illustré par André Taymans. Nlle édition[109],[23]
+no 320 : Farley, Walter Walter Farley - série Flamme : Flamme, Cheval sauvage. Traduit par Jules Bréant. Illustré par Michel Faure. Nlle édition,.
+no 331 : Farley, Walter Walter Farley - série Flamme : Flamme et les pur-sang. Traduit par Jean Muray. Illustré par Michel Faure. Nlle édition,.
+no 459 : Caroline Quine - série Alice : Alice et les Diamants. Illustré par Philippe Daure, traduit par Anne Joba. Nlle édition,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>6e série : 2000 à présent (format hybride en relief)</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>no 170 : Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons au concours hippique. Illustré par André Taymans. Nlle édition,
+no 180 : Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et l'Avion clandestin. Illustré par André Taymans. Nlle édition,.  (ISBN 2-01-201264-7)
+no 181 : Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et le Château maudit. Illustré par André Taymans. Nlle édition,.  (ISBN 2-01-200348-6)
+no 202 : Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et le Mystère du parc. Illustré par André Taymans. Nlle édition,
+no  : Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons dans la Ville rose. Illustré par André Taymans. Nlle édition,
+no 185 : Robert Bressy - série Les Six Compagnons : Les Six Compagnons et le Chasseur de scoops. Illustré par André Taymans. Nlle édition,
+no 187 : Pierre Dautun - série Les Six Compagnons : Les Six Compagnons et la Radio libre. Illustré par André Taymans. Nlle édition,
+no 173 : Maurice Périsset - série Les Six Compagnons : Les Six Compagnons à l'affût. Illustré par André Taymans. Nlle édition,
 no 726 : Brigitte Peskine - série Lucas et compagnie : Merci papa, merci maman.
 no 727 : Brigitte Peskine - série Lucas et compagnie : La grande brasse.
 no 821 : Brigitte Peskine - série Lucas et compagnie : Pour un oui, pour un non
-no 457 : Caroline Quine - série Alice : Alice et le Flibustier. Traduit par Anne Joba. Illustré par Philippe Daure. Nlle édition[109]
-no  : Olivier Séchan - série Les Six Compagnons : Les Six Compagnons à l'Étang de Berre. Illustré par André Taymans. Nlle édition[109],[23]
-2002
-no 165 : Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons au Village englouti. Illustré par André Taymans. Nlle édition[109],[23]
-no 203 : Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et la Clef-minute. Illustré par André Taymans. Nlle édition[109],[23]
+no 457 : Caroline Quine - série Alice : Alice et le Flibustier. Traduit par Anne Joba. Illustré par Philippe Daure. Nlle édition
+no  : Olivier Séchan - série Les Six Compagnons : Les Six Compagnons à l'Étang de Berre. Illustré par André Taymans. Nlle édition,</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>6e série : 2000 à présent (format hybride en relief)</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>no 165 : Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons au Village englouti. Illustré par André Taymans. Nlle édition,
+no 203 : Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et la Clef-minute. Illustré par André Taymans. Nlle édition,
 no 729 : Brigitte Peskine - série Lucas et compagnie : Comme un poisson hors de l'eau
-no 730 : Brigitte Peskine - série Lucas et compagnie : La vérité vraie
-2003
-no 177 : Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et l'Homme des neiges. Illustré par André Taymans. Nlle édition[109],[23].  (ISBN 2-01-200752-X)
-no 189 : Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et le Piano à queue. Illustré par André Taymans. Nlle édition[109],[23].  (ISBN 2-01-200777-5)
-no  : Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et le Petit Rat de l'Opéra. Illustré par André Taymans. Nlle édition[109],[23]
-no 179 : Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et la Brigade volante. Illustré par André Taymans. Nlle édition[109],[23]
+no 730 : Brigitte Peskine - série Lucas et compagnie : La vérité vraie</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>6e série : 2000 à présent (format hybride en relief)</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>no 177 : Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et l'Homme des neiges. Illustré par André Taymans. Nlle édition,.  (ISBN 2-01-200752-X)
+no 189 : Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et le Piano à queue. Illustré par André Taymans. Nlle édition,.  (ISBN 2-01-200777-5)
+no  : Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et le Petit Rat de l'Opéra. Illustré par André Taymans. Nlle édition,
+no 179 : Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et la Brigade volante. Illustré par André Taymans. Nlle édition,
 no 731 : Brigitte Peskine - série Lucas et compagnie : Pile ou face ?
-no 474 : Caroline Quine - série Alice : Alice écuyère. Illustré par Albert Chazelle, traduit par Hélène Commin. Couverture de Philippe Daure. Nlle édition[109],[23].
-2005
-no 183 : Olivier Séchan - série Les Six Compagnons : Les Six Compagnons et le Carré magique. Illustré par André Taymans. Nlle édition[109],[23]
-no 196 : Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et les Espions du ciel. Illustré par André Taymans. Nlle édition[109],[23]
-2006
-no 504 : Caroline Quine - série Alice : Alice et le Chandelier. Illustré par Marguerite Sauvage, traduit par Hélène Commin. Nlle édition[110],[23].
-Caroline Quine - série Alice : Alice et les Diamants. Illustré par Philippe Daure, traduit par Anne Joba. Réédition remaniée[23].
-2007
-Quine, Caroline Caroline Quine - série Alice : Alice et le Carnet vert. Illustré par Marguerite Sauvage, traduit par Anne Joba. Nlle édition[110],[23].
-no 474 : Caroline Quine - série Alice : Alice écuyère. Illustré par Albert Chazelle, traduit par Hélène Commin. Couverture de Marguerite Sauvage. Réédition remaniée[23].
-no 506 : Caroline Quine - série Alice : Alice et le Médaillon d'or. Illustré par Marguerite Sauvage, traduit par Hélène Commin. Nlle édition[110],[23].</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+no 474 : Caroline Quine - série Alice : Alice écuyère. Illustré par Albert Chazelle, traduit par Hélène Commin. Couverture de Philippe Daure. Nlle édition,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>6e série : 2000 à présent (format hybride en relief)</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>no 183 : Olivier Séchan - série Les Six Compagnons : Les Six Compagnons et le Carré magique. Illustré par André Taymans. Nlle édition,
+no 196 : Bonzon, Paul-Jacques Paul-Jacques Bonzon - série Les Six Compagnons : Les Six Compagnons et les Espions du ciel. Illustré par André Taymans. Nlle édition,</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>6e série : 2000 à présent (format hybride en relief)</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>no 504 : Caroline Quine - série Alice : Alice et le Chandelier. Illustré par Marguerite Sauvage, traduit par Hélène Commin. Nlle édition,.
+Caroline Quine - série Alice : Alice et les Diamants. Illustré par Philippe Daure, traduit par Anne Joba. Réédition remaniée.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>6e série : 2000 à présent (format hybride en relief)</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Quine, Caroline Caroline Quine - série Alice : Alice et le Carnet vert. Illustré par Marguerite Sauvage, traduit par Anne Joba. Nlle édition,.
+no 474 : Caroline Quine - série Alice : Alice écuyère. Illustré par Albert Chazelle, traduit par Hélène Commin. Couverture de Marguerite Sauvage. Réédition remaniée.
+no 506 : Caroline Quine - série Alice : Alice et le Médaillon d'or. Illustré par Marguerite Sauvage, traduit par Hélène Commin. Nlle édition,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
         <is>
           <t>Volumes doubles</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>no I - Verne, Jules Jules Verne - 4 romans en 1 volume : Un billet de loterie ; La Chasse au météore ; Le Château des Carpathes ; L'Étoile du sud[111]. Illustré par François Batet
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>no I - Verne, Jules Jules Verne - 4 romans en 1 volume : Un billet de loterie ; La Chasse au météore ; Le Château des Carpathes ; L'Étoile du sud. Illustré par François Batet
 no II - Malot, Hector Hector Malot - En famille. Illustré par Albert Chazelle (1963), 500 p.
 no III - Verne, Jules Jules Verne - 20000 lieues sous les mers.
 no V - Dumas, Alexandre Alexandre Dumas - Le Vicomte de Bragelonne. Illustré par François Batet (1963), 512 p.
@@ -1679,31 +3411,33 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_Bibliothèque_verte</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_Biblioth%C3%A8que_verte</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
         <is>
           <t>Bibliothèque nationale de France
 Site Internet présentant les illustrations de couverture des romans de la Bibliothèque Verte
